--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="133">
   <si>
     <t>Doi</t>
   </si>
@@ -424,6 +424,60 @@
   </si>
   <si>
     <t>CORE</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,   Amado%Andrés%NULL%2,   Carmelo%Loinaz%NULL%2,   Juan F.%Delgado%NULL%2,   Francisco%López-Medrano%NULL%2,   Rafael%San Juan%NULL%2,   Esther%González%NULL%2,   Natalia%Polanco%NULL%2,   María D.%Folgueira%NULL%2,   Antonio%Lalueza%NULL%2,   Carlos%Lumbreras%NULL%2,   José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,   Bruno%Moulin%NULL%1,   Samira%Fafi-Kremer%NULL%1,   Ilies%Benotmane%NULL%1,   Gabriela%Gautier%NULL%1,   Peggy%Perrin%NULL%1,   Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,   Beatrice%Borchi%NULL%1,   Annarita%Botta%NULL%2,   Annarita%Botta%NULL%0,   Alfredo%Bagalà%NULL%2,   Alfredo%Bagalà%NULL%0,   Gianmarco%Lugli%NULL%1,   Marta%Tilli%NULL%2,   Marta%Tilli%NULL%0,   Annalisa%Cavallo%NULL%1,   Brunilda%Xhaferi%NULL%1,   Roberta%Cutruzzulà%NULL%1,   Augusto%Vaglio%NULL%1,   Silvia%Bresci%NULL%1,   Aida%Larti%NULL%1,   Alessandro%Bartoloni%NULL%1,   Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,   Lei%Liu%NULL%0,   Wenyuan%Li%NULL%1,   Hongtao%Liu%NULL%1,   Jizhou%Wang%NULL%1,   Ziqin%Yao%NULL%1,   Shengyu%Zhang%NULL%1,   Desheng%Zhao%NULL%1,   Björn%Nashan%NULL%1,   Aizong%Shen%NULL%1,   Lianxin%Liu%NULL%1,   Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,   Xin%Li%NULL%0,   Guanghui%Cao%NULL%1,   Xiaoqiang%Wu%NULL%1,   Zhiwei%Wang%NULL%1,   Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,   Yan%Chen%NULL%0,   Quan%Yuan%NULL%1,   Qiu-Xiang%Xia%NULL%1,   Xian-Peng%Zeng%NULL%1,   Jing-Tao%Peng%NULL%1,   Jing%Liu%NULL%3,   Xing-Yuan%Xiao%NULL%1,   Guo-Song%Jiang%NULL%1,   Han-Yu%Xiao%NULL%1,   Liang-Bo%Xie%NULL%1,   Jing%Chen%NULL%0,   Jia-Li%Liu%NULL%1,   Xiong%Xiao%NULL%1,   Hua%Su%NULL%1,   Chun%Zhang%NULL%1,   Xiao-Ping%Zhang%NULL%1,   Hua%Yang%NULL%1,   Heng%Li%NULL%1,   Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,   Qin%Yin%NULL%1,   Huibo%Shi%NULL%2,   Dunfeng%Du%NULL%1,   Sheng%Chang%NULL%1,   Li%Ni%NULL%1,   Haifang%Qiu%NULL%1,   Zhishui%Chen%NULL%2,   Jixian%Zhang%NULL%1,   Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,   Marta%Colaneri%NULL%1,   Margherita%Sambo%NULL%1,   Ilaria%Gallazzi%NULL%1,   Angela%Di Matteo%NULL%1,   Silvia%Roda%NULL%1,   Raffaele%Bruno%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,   Marco%Delsante%NULL%1,   Enrico%Fiaccadori%NULL%1,   Gianluigi%Zaza%NULL%1,   Lucio%Manenti%NULL%1,   Anna%Degli Antoni%NULL%1,   Licia%Peruzzi%NULL%1,   Leonardo V.%Riella%NULL%1,   Paolo%Cravedi%NULL%1,   Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,   Gaston J.%Pineiro%NULL%1,   Ignacio%Revuelta%NULL%1,   Diana%Rodriguez%NULL%1,   Marta%Bodro%NULL%1,   Asunción%Moreno%NULL%1,   Josep M.%Campistol%NULL%1,   Fritz%Diekmann%NULL%1,   Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,   Amado%Andrés%NULL%0,   Carmelo%Loinaz%NULL%0,   Juan F.%Delgado%NULL%0,   Francisco%López-Medrano%NULL%0,   Rafael%San Juan%NULL%0,   Esther%González%NULL%0,   Natalia%Polanco%NULL%0,   María D.%Folgueira%NULL%0,   Antonio%Lalueza%NULL%0,   Carlos%Lumbreras%NULL%0,   José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,   Qiuyan%Zhang%NULL%1,   Haoyang%Xia%NULL%1,   Aiping%Wang%NULL%1,   Wenjin%Liang%NULL%1,   Wei%Zhou%NULL%1,   Lihua%Zhou%NULL%1,   Xiao%Liu%NULL%1,   Lingzhang%Rao%NULL%1,   Zhifeng%Li%NULL%1,   Zhiyong%Peng%NULL%1,   Pingzheng%Mo%NULL%0,   Yong%Xiong%NULL%0,   Shaojun%Ye%NULL%1,   Yanfeng%Wang%NULL%1,   Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,   Kenneth I.%Zheng%NULL%1,   Jacob%George%NULL%1,   Hai-Nv%Gao%NULL%0,   Ru-Nan%Wei%NULL%1,   Hua-Dong%Yan%NULL%1,   Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,   Yangzhong%Wang%NULL%1,   Yuanyuan%Zhao%NULL%1,   Huibo%Shi%NULL%0,   Fanjun%Zeng%NULL%1,   Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,   Roberta Elisa%Rossi%NULL%1,   Davide%Citterio%NULL%1,   Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -741,6 +795,9 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -767,6 +824,9 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -782,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -792,6 +852,9 @@
       </c>
       <c r="H3" t="s">
         <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +871,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -818,6 +881,9 @@
       </c>
       <c r="H4" t="s">
         <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -834,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -844,6 +910,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -860,7 +929,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -870,6 +939,9 @@
       </c>
       <c r="H6" t="s">
         <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -886,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -896,6 +968,9 @@
       </c>
       <c r="H7" t="s">
         <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -912,7 +987,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -922,6 +997,9 @@
       </c>
       <c r="H8" t="s">
         <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -938,7 +1016,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -948,6 +1026,9 @@
       </c>
       <c r="H9" t="s">
         <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -964,7 +1045,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -974,6 +1055,9 @@
       </c>
       <c r="H10" t="s">
         <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -990,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1000,6 +1084,9 @@
       </c>
       <c r="H11" t="s">
         <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1016,7 +1103,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1026,6 +1113,9 @@
       </c>
       <c r="H12" t="s">
         <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1042,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1052,6 +1142,9 @@
       </c>
       <c r="H13" t="s">
         <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1068,7 +1161,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1078,6 +1171,9 @@
       </c>
       <c r="H14" t="s">
         <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -1105,6 +1201,9 @@
       <c r="H15" t="s">
         <v>32</v>
       </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1120,7 +1219,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1130,6 +1229,9 @@
       </c>
       <c r="H16" t="s">
         <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -1146,7 +1248,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1156,6 +1258,9 @@
       </c>
       <c r="H17" t="s">
         <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1172,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1182,6 +1287,9 @@
       </c>
       <c r="H18" t="s">
         <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -1201,13 +1309,16 @@
         <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="193">
   <si>
     <t>Doi</t>
   </si>
@@ -478,6 +478,186 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,   Roberta Elisa%Rossi%NULL%1,   Davide%Citterio%NULL%1,   Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,    Amado%Andrés%NULL%2,    Carmelo%Loinaz%NULL%2,    Juan F.%Delgado%NULL%2,    Francisco%López-Medrano%NULL%2,    Rafael%San Juan%NULL%2,    Esther%González%NULL%2,    Natalia%Polanco%NULL%2,    María D.%Folgueira%NULL%2,    Antonio%Lalueza%NULL%2,    Carlos%Lumbreras%NULL%2,    José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,    Bruno%Moulin%NULL%1,    Samira%Fafi-Kremer%NULL%1,    Ilies%Benotmane%NULL%1,    Gabriela%Gautier%NULL%1,    Peggy%Perrin%NULL%1,    Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,    Beatrice%Borchi%NULL%1,    Annarita%Botta%NULL%2,    Annarita%Botta%NULL%0,    Alfredo%Bagalà%NULL%2,    Alfredo%Bagalà%NULL%0,    Gianmarco%Lugli%NULL%1,    Marta%Tilli%NULL%2,    Marta%Tilli%NULL%0,    Annalisa%Cavallo%NULL%1,    Brunilda%Xhaferi%NULL%1,    Roberta%Cutruzzulà%NULL%1,    Augusto%Vaglio%NULL%1,    Silvia%Bresci%NULL%1,    Aida%Larti%NULL%1,    Alessandro%Bartoloni%NULL%1,    Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,    Lei%Liu%NULL%0,    Wenyuan%Li%NULL%1,    Hongtao%Liu%NULL%1,    Jizhou%Wang%NULL%1,    Ziqin%Yao%NULL%1,    Shengyu%Zhang%NULL%1,    Desheng%Zhao%NULL%1,    Björn%Nashan%NULL%1,    Aizong%Shen%NULL%1,    Lianxin%Liu%NULL%1,    Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,    Xin%Li%NULL%0,    Guanghui%Cao%NULL%1,    Xiaoqiang%Wu%NULL%1,    Zhiwei%Wang%NULL%1,    Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,    Yan%Chen%NULL%0,    Quan%Yuan%NULL%1,    Qiu-Xiang%Xia%NULL%1,    Xian-Peng%Zeng%NULL%1,    Jing-Tao%Peng%NULL%1,    Jing%Liu%NULL%3,    Xing-Yuan%Xiao%NULL%1,    Guo-Song%Jiang%NULL%1,    Han-Yu%Xiao%NULL%1,    Liang-Bo%Xie%NULL%1,    Jing%Chen%NULL%0,    Jia-Li%Liu%NULL%1,    Xiong%Xiao%NULL%1,    Hua%Su%NULL%1,    Chun%Zhang%NULL%1,    Xiao-Ping%Zhang%NULL%1,    Hua%Yang%NULL%1,    Heng%Li%NULL%1,    Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,    Qin%Yin%NULL%1,    Huibo%Shi%NULL%2,    Dunfeng%Du%NULL%1,    Sheng%Chang%NULL%1,    Li%Ni%NULL%1,    Haifang%Qiu%NULL%1,    Zhishui%Chen%NULL%2,    Jixian%Zhang%NULL%1,    Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,    Marta%Colaneri%NULL%1,    Margherita%Sambo%NULL%1,    Ilaria%Gallazzi%NULL%1,    Angela%Di Matteo%NULL%1,    Silvia%Roda%NULL%1,    Raffaele%Bruno%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,    Marco%Delsante%NULL%1,    Enrico%Fiaccadori%NULL%1,    Gianluigi%Zaza%NULL%1,    Lucio%Manenti%NULL%1,    Anna%Degli Antoni%NULL%1,    Licia%Peruzzi%NULL%1,    Leonardo V.%Riella%NULL%1,    Paolo%Cravedi%NULL%1,    Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,    Gaston J.%Pineiro%NULL%1,    Ignacio%Revuelta%NULL%1,    Diana%Rodriguez%NULL%1,    Marta%Bodro%NULL%1,    Asunción%Moreno%NULL%1,    Josep M.%Campistol%NULL%1,    Fritz%Diekmann%NULL%1,    Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,    Amado%Andrés%NULL%0,    Carmelo%Loinaz%NULL%0,    Juan F.%Delgado%NULL%0,    Francisco%López-Medrano%NULL%0,    Rafael%San Juan%NULL%0,    Esther%González%NULL%0,    Natalia%Polanco%NULL%0,    María D.%Folgueira%NULL%0,    Antonio%Lalueza%NULL%0,    Carlos%Lumbreras%NULL%0,    José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,    Qiuyan%Zhang%NULL%1,    Haoyang%Xia%NULL%1,    Aiping%Wang%NULL%1,    Wenjin%Liang%NULL%1,    Wei%Zhou%NULL%1,    Lihua%Zhou%NULL%1,    Xiao%Liu%NULL%1,    Lingzhang%Rao%NULL%1,    Zhifeng%Li%NULL%1,    Zhiyong%Peng%NULL%1,    Pingzheng%Mo%NULL%0,    Yong%Xiong%NULL%0,    Shaojun%Ye%NULL%1,    Yanfeng%Wang%NULL%1,    Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,    Kenneth I.%Zheng%NULL%1,    Jacob%George%NULL%1,    Hai-Nv%Gao%NULL%0,    Ru-Nan%Wei%NULL%1,    Hua-Dong%Yan%NULL%1,    Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,    Yangzhong%Wang%NULL%1,    Yuanyuan%Zhao%NULL%1,    Huibo%Shi%NULL%0,    Fanjun%Zeng%NULL%1,    Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,    Roberta Elisa%Rossi%NULL%1,    Davide%Citterio%NULL%1,    Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,     Amado%Andrés%NULL%2,     Carmelo%Loinaz%NULL%2,     Juan F.%Delgado%NULL%2,     Francisco%López-Medrano%NULL%2,     Rafael%San Juan%NULL%2,     Esther%González%NULL%2,     Natalia%Polanco%NULL%2,     María D.%Folgueira%NULL%2,     Antonio%Lalueza%NULL%2,     Carlos%Lumbreras%NULL%2,     José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,     Bruno%Moulin%NULL%1,     Samira%Fafi-Kremer%NULL%1,     Ilies%Benotmane%NULL%1,     Gabriela%Gautier%NULL%1,     Peggy%Perrin%NULL%1,     Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,     Beatrice%Borchi%NULL%1,     Annarita%Botta%NULL%2,     Annarita%Botta%NULL%0,     Alfredo%Bagalà%NULL%2,     Alfredo%Bagalà%NULL%0,     Gianmarco%Lugli%NULL%1,     Marta%Tilli%NULL%2,     Marta%Tilli%NULL%0,     Annalisa%Cavallo%NULL%1,     Brunilda%Xhaferi%NULL%1,     Roberta%Cutruzzulà%NULL%1,     Augusto%Vaglio%NULL%1,     Silvia%Bresci%NULL%1,     Aida%Larti%NULL%1,     Alessandro%Bartoloni%NULL%1,     Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,     Lei%Liu%NULL%0,     Wenyuan%Li%NULL%1,     Hongtao%Liu%NULL%1,     Jizhou%Wang%NULL%1,     Ziqin%Yao%NULL%1,     Shengyu%Zhang%NULL%1,     Desheng%Zhao%NULL%1,     Björn%Nashan%NULL%1,     Aizong%Shen%NULL%1,     Lianxin%Liu%NULL%1,     Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,     Xin%Li%NULL%3,     Guanghui%Cao%NULL%1,     Xiaoqiang%Wu%NULL%1,     Zhiwei%Wang%NULL%1,     Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,     Yan%Chen%NULL%1,     Quan%Yuan%NULL%1,     Qiu-Xiang%Xia%NULL%1,     Xian-Peng%Zeng%NULL%1,     Jing-Tao%Peng%NULL%1,     Jing%Liu%NULL%3,     Xing-Yuan%Xiao%NULL%1,     Guo-Song%Jiang%NULL%1,     Han-Yu%Xiao%NULL%1,     Liang-Bo%Xie%NULL%1,     Jing%Chen%NULL%0,     Jia-Li%Liu%NULL%1,     Xiong%Xiao%NULL%1,     Hua%Su%NULL%1,     Chun%Zhang%NULL%1,     Xiao-Ping%Zhang%NULL%1,     Hua%Yang%NULL%1,     Heng%Li%NULL%1,     Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,     Qin%Yin%NULL%1,     Huibo%Shi%NULL%2,     Dunfeng%Du%NULL%1,     Sheng%Chang%NULL%1,     Li%Ni%NULL%1,     Haifang%Qiu%NULL%1,     Zhishui%Chen%NULL%2,     Jixian%Zhang%NULL%1,     Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,     Marta%Colaneri%NULL%1,     Margherita%Sambo%NULL%1,     Ilaria%Gallazzi%NULL%1,     Angela%Di Matteo%NULL%1,     Silvia%Roda%NULL%1,     Raffaele%Bruno%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,     Marco%Delsante%NULL%1,     Enrico%Fiaccadori%NULL%1,     Gianluigi%Zaza%NULL%1,     Lucio%Manenti%NULL%1,     Anna%Degli Antoni%NULL%1,     Licia%Peruzzi%NULL%1,     Leonardo V.%Riella%NULL%1,     Paolo%Cravedi%NULL%1,     Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,     Gaston J.%Pineiro%NULL%1,     Ignacio%Revuelta%NULL%1,     Diana%Rodriguez%NULL%1,     Marta%Bodro%NULL%1,     Asunción%Moreno%NULL%1,     Josep M.%Campistol%NULL%1,     Fritz%Diekmann%NULL%1,     Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,     Amado%Andrés%NULL%0,     Carmelo%Loinaz%NULL%0,     Juan F.%Delgado%NULL%0,     Francisco%López-Medrano%NULL%0,     Rafael%San Juan%NULL%0,     Esther%González%NULL%0,     Natalia%Polanco%NULL%0,     María D.%Folgueira%NULL%0,     Antonio%Lalueza%NULL%0,     Carlos%Lumbreras%NULL%0,     José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,     Qiuyan%Zhang%NULL%1,     Haoyang%Xia%NULL%1,     Aiping%Wang%NULL%1,     Wenjin%Liang%NULL%1,     Wei%Zhou%NULL%1,     Lihua%Zhou%NULL%1,     Xiao%Liu%NULL%1,     Lingzhang%Rao%NULL%1,     Zhifeng%Li%NULL%1,     Zhiyong%Peng%NULL%1,     Pingzheng%Mo%NULL%0,     Yong%Xiong%NULL%0,     Shaojun%Ye%NULL%1,     Yanfeng%Wang%NULL%1,     Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,     Kenneth I.%Zheng%NULL%1,     Jacob%George%NULL%1,     Hai-Nv%Gao%NULL%0,     Ru-Nan%Wei%NULL%1,     Hua-Dong%Yan%NULL%1,     Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,     Yangzhong%Wang%NULL%1,     Yuanyuan%Zhao%NULL%1,     Huibo%Shi%NULL%0,     Fanjun%Zeng%NULL%1,     Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,     Roberta Elisa%Rossi%NULL%1,     Davide%Citterio%NULL%1,     Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,      Amado%Andrés%NULL%2,      Carmelo%Loinaz%NULL%2,      Juan F.%Delgado%NULL%2,      Francisco%López-Medrano%NULL%2,      Rafael%San Juan%NULL%2,      Esther%González%NULL%2,      Natalia%Polanco%NULL%2,      María D.%Folgueira%NULL%2,      Antonio%Lalueza%NULL%2,      Carlos%Lumbreras%NULL%2,      José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,      Bruno%Moulin%NULL%1,      Samira%Fafi-Kremer%NULL%1,      Ilies%Benotmane%NULL%1,      Gabriela%Gautier%NULL%1,      Peggy%Perrin%NULL%1,      Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,      Beatrice%Borchi%NULL%1,      Annarita%Botta%NULL%2,      Annarita%Botta%NULL%0,      Alfredo%Bagalà%NULL%2,      Alfredo%Bagalà%NULL%0,      Gianmarco%Lugli%NULL%1,      Marta%Tilli%NULL%2,      Marta%Tilli%NULL%0,      Annalisa%Cavallo%NULL%1,      Brunilda%Xhaferi%NULL%1,      Roberta%Cutruzzulà%NULL%1,      Augusto%Vaglio%NULL%1,      Silvia%Bresci%NULL%1,      Aida%Larti%NULL%1,      Alessandro%Bartoloni%NULL%1,      Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,      Lei%Liu%NULL%0,      Wenyuan%Li%NULL%1,      Hongtao%Liu%NULL%1,      Jizhou%Wang%NULL%1,      Ziqin%Yao%NULL%1,      Shengyu%Zhang%NULL%1,      Desheng%Zhao%NULL%1,      Björn%Nashan%NULL%1,      Aizong%Shen%NULL%1,      Lianxin%Liu%NULL%1,      Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,      Xin%Li%NULL%3,      Guanghui%Cao%NULL%1,      Xiaoqiang%Wu%NULL%1,      Zhiwei%Wang%NULL%1,      Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,      Yan%Chen%NULL%1,      Quan%Yuan%NULL%1,      Qiu-Xiang%Xia%NULL%1,      Xian-Peng%Zeng%NULL%1,      Jing-Tao%Peng%NULL%1,      Jing%Liu%NULL%3,      Xing-Yuan%Xiao%NULL%1,      Guo-Song%Jiang%NULL%1,      Han-Yu%Xiao%NULL%1,      Liang-Bo%Xie%NULL%1,      Jing%Chen%NULL%0,      Jia-Li%Liu%NULL%1,      Xiong%Xiao%NULL%1,      Hua%Su%NULL%1,      Chun%Zhang%NULL%1,      Xiao-Ping%Zhang%NULL%1,      Hua%Yang%NULL%1,      Heng%Li%NULL%1,      Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,      Qin%Yin%NULL%1,      Huibo%Shi%NULL%2,      Dunfeng%Du%NULL%1,      Sheng%Chang%NULL%1,      Li%Ni%NULL%1,      Haifang%Qiu%NULL%1,      Zhishui%Chen%NULL%2,      Jixian%Zhang%NULL%1,      Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,      Marta%Colaneri%NULL%1,      Margherita%Sambo%NULL%1,      Ilaria%Gallazzi%NULL%1,      Angela%Di Matteo%NULL%1,      Silvia%Roda%NULL%1,      Raffaele%Bruno%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,      Marco%Delsante%NULL%1,      Enrico%Fiaccadori%NULL%1,      Gianluigi%Zaza%NULL%1,      Lucio%Manenti%NULL%1,      Anna%Degli Antoni%NULL%1,      Licia%Peruzzi%NULL%1,      Leonardo V.%Riella%NULL%1,      Paolo%Cravedi%NULL%1,      Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,      Gaston J.%Pineiro%NULL%1,      Ignacio%Revuelta%NULL%1,      Diana%Rodriguez%NULL%1,      Marta%Bodro%NULL%1,      Asunción%Moreno%NULL%1,      Josep M.%Campistol%NULL%1,      Fritz%Diekmann%NULL%1,      Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,      Amado%Andrés%NULL%0,      Carmelo%Loinaz%NULL%0,      Juan F.%Delgado%NULL%0,      Francisco%López-Medrano%NULL%0,      Rafael%San Juan%NULL%0,      Esther%González%NULL%0,      Natalia%Polanco%NULL%0,      María D.%Folgueira%NULL%0,      Antonio%Lalueza%NULL%0,      Carlos%Lumbreras%NULL%0,      José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,      Qiuyan%Zhang%NULL%1,      Haoyang%Xia%NULL%1,      Aiping%Wang%NULL%1,      Wenjin%Liang%NULL%1,      Wei%Zhou%NULL%1,      Lihua%Zhou%NULL%1,      Xiao%Liu%NULL%1,      Lingzhang%Rao%NULL%1,      Zhifeng%Li%NULL%1,      Zhiyong%Peng%NULL%1,      Pingzheng%Mo%NULL%0,      Yong%Xiong%NULL%0,      Shaojun%Ye%NULL%1,      Yanfeng%Wang%NULL%1,      Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,      Kenneth I.%Zheng%NULL%1,      Jacob%George%NULL%1,      Hai-Nv%Gao%NULL%0,      Ru-Nan%Wei%NULL%1,      Hua-Dong%Yan%NULL%1,      Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,      Yangzhong%Wang%NULL%1,      Yuanyuan%Zhao%NULL%1,      Huibo%Shi%NULL%0,      Fanjun%Zeng%NULL%1,      Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,      Roberta Elisa%Rossi%NULL%1,      Davide%Citterio%NULL%1,      Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,       Amado%Andrés%NULL%2,       Carmelo%Loinaz%NULL%2,       Juan F.%Delgado%NULL%2,       Francisco%López-Medrano%NULL%2,       Rafael%San Juan%NULL%2,       Esther%González%NULL%2,       Natalia%Polanco%NULL%2,       María D.%Folgueira%NULL%2,       Antonio%Lalueza%NULL%2,       Carlos%Lumbreras%NULL%2,       José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,       Bruno%Moulin%NULL%1,       Samira%Fafi-Kremer%NULL%1,       Ilies%Benotmane%NULL%1,       Gabriela%Gautier%NULL%1,       Peggy%Perrin%NULL%1,       Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,       Beatrice%Borchi%NULL%1,       Annarita%Botta%NULL%2,       Annarita%Botta%NULL%0,       Alfredo%Bagalà%NULL%2,       Alfredo%Bagalà%NULL%0,       Gianmarco%Lugli%NULL%1,       Marta%Tilli%NULL%2,       Marta%Tilli%NULL%0,       Annalisa%Cavallo%NULL%1,       Brunilda%Xhaferi%NULL%1,       Roberta%Cutruzzulà%NULL%1,       Augusto%Vaglio%NULL%1,       Silvia%Bresci%NULL%1,       Aida%Larti%NULL%1,       Alessandro%Bartoloni%NULL%1,       Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,       Lei%Liu%NULL%0,       Wenyuan%Li%NULL%1,       Hongtao%Liu%NULL%1,       Jizhou%Wang%NULL%1,       Ziqin%Yao%NULL%1,       Shengyu%Zhang%NULL%1,       Desheng%Zhao%NULL%1,       Björn%Nashan%NULL%1,       Aizong%Shen%NULL%1,       Lianxin%Liu%NULL%1,       Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,       Xin%Li%NULL%3,       Guanghui%Cao%NULL%1,       Xiaoqiang%Wu%NULL%1,       Zhiwei%Wang%NULL%1,       Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,       Yan%Chen%NULL%1,       Quan%Yuan%NULL%1,       Qiu-Xiang%Xia%NULL%1,       Xian-Peng%Zeng%NULL%1,       Jing-Tao%Peng%NULL%1,       Jing%Liu%NULL%3,       Xing-Yuan%Xiao%NULL%1,       Guo-Song%Jiang%NULL%1,       Han-Yu%Xiao%NULL%1,       Liang-Bo%Xie%NULL%1,       Jing%Chen%NULL%0,       Jia-Li%Liu%NULL%1,       Xiong%Xiao%NULL%1,       Hua%Su%NULL%1,       Chun%Zhang%NULL%1,       Xiao-Ping%Zhang%NULL%1,       Hua%Yang%NULL%1,       Heng%Li%NULL%1,       Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,       Qin%Yin%NULL%1,       Huibo%Shi%NULL%2,       Dunfeng%Du%NULL%1,       Sheng%Chang%NULL%1,       Li%Ni%NULL%1,       Haifang%Qiu%NULL%1,       Zhishui%Chen%NULL%2,       Jixian%Zhang%NULL%1,       Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,       Marta%Colaneri%NULL%1,       Margherita%Sambo%NULL%1,       Ilaria%Gallazzi%NULL%1,       Angela%Di Matteo%NULL%1,       Silvia%Roda%NULL%1,       Raffaele%Bruno%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,       Marco%Delsante%NULL%1,       Enrico%Fiaccadori%NULL%1,       Gianluigi%Zaza%NULL%1,       Lucio%Manenti%NULL%1,       Anna%Degli Antoni%NULL%1,       Licia%Peruzzi%NULL%1,       Leonardo V.%Riella%NULL%1,       Paolo%Cravedi%NULL%1,       Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,       Gaston J.%Pineiro%NULL%1,       Ignacio%Revuelta%NULL%1,       Diana%Rodriguez%NULL%1,       Marta%Bodro%NULL%1,       Asunción%Moreno%NULL%1,       Josep M.%Campistol%NULL%1,       Fritz%Diekmann%NULL%1,       Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,       Amado%Andrés%NULL%0,       Carmelo%Loinaz%NULL%0,       Juan F.%Delgado%NULL%0,       Francisco%López-Medrano%NULL%0,       Rafael%San Juan%NULL%0,       Esther%González%NULL%0,       Natalia%Polanco%NULL%0,       María D.%Folgueira%NULL%0,       Antonio%Lalueza%NULL%0,       Carlos%Lumbreras%NULL%0,       José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,       Qiuyan%Zhang%NULL%1,       Haoyang%Xia%NULL%1,       Aiping%Wang%NULL%1,       Wenjin%Liang%NULL%1,       Wei%Zhou%NULL%1,       Lihua%Zhou%NULL%1,       Xiao%Liu%NULL%1,       Lingzhang%Rao%NULL%1,       Zhifeng%Li%NULL%1,       Zhiyong%Peng%NULL%1,       Pingzheng%Mo%NULL%0,       Yong%Xiong%NULL%0,       Shaojun%Ye%NULL%1,       Yanfeng%Wang%NULL%1,       Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,       Kenneth I.%Zheng%NULL%1,       Jacob%George%NULL%1,       Hai-Nv%Gao%NULL%0,       Ru-Nan%Wei%NULL%1,       Hua-Dong%Yan%NULL%1,       Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,       Yangzhong%Wang%NULL%1,       Yuanyuan%Zhao%NULL%1,       Huibo%Shi%NULL%0,       Fanjun%Zeng%NULL%1,       Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,       Roberta Elisa%Rossi%NULL%1,       Davide%Citterio%NULL%1,       Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -842,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -871,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -900,7 +1080,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -929,7 +1109,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -958,7 +1138,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -987,7 +1167,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1016,7 +1196,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1045,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1074,7 +1254,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1103,7 +1283,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1132,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1161,7 +1341,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1219,7 +1399,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1248,7 +1428,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1277,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1309,10 +1489,10 @@
         <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="233">
   <si>
     <t>Doi</t>
   </si>
@@ -658,6 +658,134 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,       Roberta Elisa%Rossi%NULL%1,       Davide%Citterio%NULL%1,       Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>"COVID-19\u2013Associated Hepatitis Complicating Recent Living Donor Liver Transplantation"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We present a case of COVID-19 hepatitis in a living donor liver allograft recipient whose donor subsequently tested positive for COVID-19. The patient is a female infant with biliary atresia (failed Kasai procedure).
+ She recovered well, with improving liver function tests for 4 days.
+ On postoperative day 4 the patient developed respiratory distress and fever.
+ COVID-19 testing (polymerase chain reaction) was positive.
+ Liver function test results increased approximately 5-fold.
+ Liver biopsy showed moderate acute hepatitis with prominent clusters of apoptotic hepatocytes and associated cellular debris.
+ Lobular lymphohistiocytic inflammation was noted.
+ Typical portal features of mild to moderate acute cellular rejection were also noted.
+</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1, Simona%De Michele%xref no email%1, Michael J.%Lee%xref no email%1, Jean C.%Emond%xref no email%1, Adam D.%Griesemer%xref no email%1, Sheryl A.%Tulin-Silver%xref no email%1, Elizabeth C.%Verna%xref no email%1, Mercedes%Martinez%xref no email%1, Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,        Amado%Andrés%NULL%2,        Carmelo%Loinaz%NULL%2,        Juan F.%Delgado%NULL%2,        Francisco%López-Medrano%NULL%2,        Rafael%San Juan%NULL%2,        Esther%González%NULL%2,        Natalia%Polanco%NULL%2,        María D.%Folgueira%NULL%2,        Antonio%Lalueza%NULL%2,        Carlos%Lumbreras%NULL%2,        José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,        Bruno%Moulin%NULL%1,        Samira%Fafi-Kremer%NULL%2,        Ilies%Benotmane%NULL%1,        Gabriela%Gautier%NULL%1,        Peggy%Perrin%NULL%1,        Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,        Beatrice%Borchi%NULL%1,        Annarita%Botta%NULL%2,        Annarita%Botta%NULL%0,        Alfredo%Bagalà%NULL%2,        Alfredo%Bagalà%NULL%0,        Gianmarco%Lugli%NULL%1,        Marta%Tilli%NULL%2,        Marta%Tilli%NULL%0,        Annalisa%Cavallo%NULL%1,        Brunilda%Xhaferi%NULL%1,        Roberta%Cutruzzulà%NULL%1,        Augusto%Vaglio%NULL%1,        Silvia%Bresci%NULL%1,        Aida%Larti%NULL%1,        Alessandro%Bartoloni%NULL%1,        Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,        Lei%Liu%NULL%0,        Wenyuan%Li%NULL%1,        Hongtao%Liu%NULL%1,        Jizhou%Wang%NULL%1,        Ziqin%Yao%NULL%1,        Shengyu%Zhang%NULL%1,        Desheng%Zhao%NULL%1,        Björn%Nashan%NULL%1,        Aizong%Shen%NULL%1,        Lianxin%Liu%NULL%2,        Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,        Xin%Li%NULL%3,        Guanghui%Cao%NULL%1,        Xiaoqiang%Wu%NULL%1,        Zhiwei%Wang%NULL%1,        Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,        Yan%Chen%NULL%1,        Quan%Yuan%NULL%1,        Qiu-Xiang%Xia%NULL%1,        Xian-Peng%Zeng%NULL%1,        Jing-Tao%Peng%NULL%1,        Jing%Liu%NULL%3,        Xing-Yuan%Xiao%NULL%1,        Guo-Song%Jiang%NULL%1,        Han-Yu%Xiao%NULL%1,        Liang-Bo%Xie%NULL%1,        Jing%Chen%NULL%2,        Jia-Li%Liu%NULL%1,        Xiong%Xiao%NULL%1,        Hua%Su%NULL%1,        Chun%Zhang%NULL%1,        Xiao-Ping%Zhang%NULL%1,        Hua%Yang%NULL%1,        Heng%Li%NULL%1,        Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,        Qin%Yin%NULL%1,        Huibo%Shi%NULL%2,        Dunfeng%Du%NULL%1,        Sheng%Chang%NULL%1,        Li%Ni%NULL%1,        Haifang%Qiu%NULL%1,        Zhishui%Chen%NULL%2,        Jixian%Zhang%NULL%1,        Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,        Marta%Colaneri%NULL%1,        Margherita%Sambo%NULL%1,        Ilaria%Gallazzi%NULL%1,        Angela%Di Matteo%NULL%1,        Silvia%Roda%NULL%1,        Raffaele%Bruno%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,        Marco%Delsante%NULL%1,        Enrico%Fiaccadori%NULL%1,        Gianluigi%Zaza%NULL%1,        Lucio%Manenti%NULL%1,        Anna%Degli Antoni%NULL%1,        Licia%Peruzzi%NULL%1,        Leonardo V.%Riella%NULL%1,        Paolo%Cravedi%NULL%1,        Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,        Gaston J.%Pineiro%NULL%1,        Ignacio%Revuelta%NULL%1,        Diana%Rodriguez%NULL%1,        Marta%Bodro%NULL%1,        Asunción%Moreno%NULL%1,        Josep M.%Campistol%NULL%1,        Fritz%Diekmann%NULL%1,        Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,        Amado%Andrés%NULL%0,        Carmelo%Loinaz%NULL%0,        Juan F.%Delgado%NULL%0,        Francisco%López-Medrano%NULL%0,        Rafael%San Juan%NULL%0,        Esther%González%NULL%0,        Natalia%Polanco%NULL%0,        María D.%Folgueira%NULL%0,        Antonio%Lalueza%NULL%0,        Carlos%Lumbreras%NULL%0,        José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,        Qiuyan%Zhang%NULL%1,        Haoyang%Xia%NULL%1,        Aiping%Wang%NULL%1,        Wenjin%Liang%NULL%1,        Wei%Zhou%NULL%1,        Lihua%Zhou%NULL%1,        Xiao%Liu%NULL%1,        Lingzhang%Rao%NULL%1,        Zhifeng%Li%NULL%1,        Zhiyong%Peng%NULL%1,        Pingzheng%Mo%NULL%0,        Yong%Xiong%NULL%0,        Shaojun%Ye%NULL%1,        Yanfeng%Wang%NULL%1,        Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Perioperative Presentation of COVID\u201019 Disease in a Liver Transplant Recipient"</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1, Haitao%Wang%xref no email%1, Xian%Qin%xref no email%1, Peng%Zhang%xref no email%0, Lihua%Zhu%xref no email%1, Jingjing%Cai%xref no email%1, Yufeng%Yuan%xref no email%1, Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,        Kenneth I.%Zheng%NULL%1,        Jacob%George%NULL%1,        Hai-Nv%Gao%NULL%1,        Ru-Nan%Wei%NULL%1,        Hua-Dong%Yan%NULL%1,        Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,        Yangzhong%Wang%NULL%1,        Yuanyuan%Zhao%NULL%1,        Huibo%Shi%NULL%0,        Fanjun%Zeng%NULL%1,        Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,        Roberta Elisa%Rossi%NULL%1,        Davide%Citterio%NULL%1,        Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,  Simona%De Michele%xref no email%1,  Michael J.%Lee%xref no email%1,  Jean C.%Emond%xref no email%1,  Adam D.%Griesemer%xref no email%1,  Sheryl A.%Tulin-Silver%xref no email%1,  Elizabeth C.%Verna%xref no email%1,  Mercedes%Martinez%xref no email%1,  Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,         Amado%Andrés%NULL%2,         Carmelo%Loinaz%NULL%2,         Juan F.%Delgado%NULL%2,         Francisco%López-Medrano%NULL%2,         Rafael%San Juan%NULL%2,         Esther%González%NULL%2,         Natalia%Polanco%NULL%2,         María D.%Folgueira%NULL%2,         Antonio%Lalueza%NULL%2,         Carlos%Lumbreras%NULL%2,         José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,         Bruno%Moulin%NULL%1,         Samira%Fafi-Kremer%NULL%2,         Ilies%Benotmane%NULL%1,         Gabriela%Gautier%NULL%1,         Peggy%Perrin%NULL%1,         Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,         Beatrice%Borchi%NULL%1,         Annarita%Botta%NULL%2,         Annarita%Botta%NULL%0,         Alfredo%Bagalà%NULL%2,         Alfredo%Bagalà%NULL%0,         Gianmarco%Lugli%NULL%1,         Marta%Tilli%NULL%2,         Marta%Tilli%NULL%0,         Annalisa%Cavallo%NULL%1,         Brunilda%Xhaferi%NULL%1,         Roberta%Cutruzzulà%NULL%1,         Augusto%Vaglio%NULL%1,         Silvia%Bresci%NULL%1,         Aida%Larti%NULL%1,         Alessandro%Bartoloni%NULL%1,         Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,         Lei%Liu%NULL%0,         Wenyuan%Li%NULL%1,         Hongtao%Liu%NULL%1,         Jizhou%Wang%NULL%1,         Ziqin%Yao%NULL%1,         Shengyu%Zhang%NULL%1,         Desheng%Zhao%NULL%1,         Björn%Nashan%NULL%1,         Aizong%Shen%NULL%1,         Lianxin%Liu%NULL%2,         Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,         Xin%Li%NULL%3,         Guanghui%Cao%NULL%1,         Xiaoqiang%Wu%NULL%1,         Zhiwei%Wang%NULL%1,         Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,         Yan%Chen%NULL%1,         Quan%Yuan%NULL%1,         Qiu-Xiang%Xia%NULL%1,         Xian-Peng%Zeng%NULL%1,         Jing-Tao%Peng%NULL%1,         Jing%Liu%NULL%3,         Xing-Yuan%Xiao%NULL%1,         Guo-Song%Jiang%NULL%1,         Han-Yu%Xiao%NULL%1,         Liang-Bo%Xie%NULL%1,         Jing%Chen%NULL%2,         Jia-Li%Liu%NULL%1,         Xiong%Xiao%NULL%1,         Hua%Su%NULL%1,         Chun%Zhang%NULL%1,         Xiao-Ping%Zhang%NULL%1,         Hua%Yang%NULL%1,         Heng%Li%NULL%1,         Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,         Qin%Yin%NULL%1,         Huibo%Shi%NULL%2,         Dunfeng%Du%NULL%1,         Sheng%Chang%NULL%1,         Li%Ni%NULL%1,         Haifang%Qiu%NULL%1,         Zhishui%Chen%NULL%2,         Jixian%Zhang%NULL%1,         Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,         Marta%Colaneri%NULL%1,         Margherita%Sambo%NULL%1,         Ilaria%Gallazzi%NULL%1,         Angela%Di Matteo%NULL%1,         Silvia%Roda%NULL%1,         Raffaele%Bruno%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,         Marco%Delsante%NULL%1,         Enrico%Fiaccadori%NULL%1,         Gianluigi%Zaza%NULL%1,         Lucio%Manenti%NULL%1,         Anna%Degli Antoni%NULL%1,         Licia%Peruzzi%NULL%1,         Leonardo V.%Riella%NULL%1,         Paolo%Cravedi%NULL%1,         Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,         Gaston J.%Pineiro%NULL%1,         Ignacio%Revuelta%NULL%1,         Diana%Rodriguez%NULL%1,         Marta%Bodro%NULL%1,         Asunción%Moreno%NULL%1,         Josep M.%Campistol%NULL%1,         Fritz%Diekmann%NULL%1,         Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,         Amado%Andrés%NULL%0,         Carmelo%Loinaz%NULL%0,         Juan F.%Delgado%NULL%0,         Francisco%López-Medrano%NULL%0,         Rafael%San Juan%NULL%0,         Esther%González%NULL%0,         Natalia%Polanco%NULL%0,         María D.%Folgueira%NULL%0,         Antonio%Lalueza%NULL%0,         Carlos%Lumbreras%NULL%0,         José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,         Qiuyan%Zhang%NULL%1,         Haoyang%Xia%NULL%1,         Aiping%Wang%NULL%1,         Wenjin%Liang%NULL%1,         Wei%Zhou%NULL%1,         Lihua%Zhou%NULL%1,         Xiao%Liu%NULL%1,         Lingzhang%Rao%NULL%1,         Zhifeng%Li%NULL%1,         Zhiyong%Peng%NULL%1,         Pingzheng%Mo%NULL%0,         Yong%Xiong%NULL%0,         Shaojun%Ye%NULL%1,         Yanfeng%Wang%NULL%1,         Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,  Haitao%Wang%xref no email%1,  Xian%Qin%xref no email%1,  Peng%Zhang%xref no email%1,  Lihua%Zhu%xref no email%1,  Jingjing%Cai%xref no email%1,  Yufeng%Yuan%xref no email%1,  Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,         Kenneth I.%Zheng%NULL%1,         Jacob%George%NULL%1,         Hai-Nv%Gao%NULL%1,         Ru-Nan%Wei%NULL%1,         Hua-Dong%Yan%NULL%1,         Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,         Yangzhong%Wang%NULL%1,         Yuanyuan%Zhao%NULL%1,         Huibo%Shi%NULL%0,         Fanjun%Zeng%NULL%1,         Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,         Roberta Elisa%Rossi%NULL%1,         Davide%Citterio%NULL%1,         Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -987,22 +1115,22 @@
         <v>43938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -1022,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1051,7 +1179,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1080,7 +1208,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1109,7 +1237,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1138,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1167,7 +1295,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1196,7 +1324,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1225,7 +1353,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1254,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1283,7 +1411,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1312,7 +1440,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1341,7 +1469,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1364,22 +1492,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -1399,7 +1527,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1428,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1457,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="267">
   <si>
     <t>Doi</t>
   </si>
@@ -786,6 +786,108 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,         Roberta Elisa%Rossi%NULL%1,         Davide%Citterio%NULL%1,         Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,   Simona%De Michele%xref no email%1,   Michael J.%Lee%xref no email%1,   Jean C.%Emond%xref no email%1,   Adam D.%Griesemer%xref no email%1,   Sheryl A.%Tulin-Silver%xref no email%1,   Elizabeth C.%Verna%xref no email%1,   Mercedes%Martinez%xref no email%1,   Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,          Amado%Andrés%NULL%2,          Carmelo%Loinaz%NULL%2,          Juan F.%Delgado%NULL%2,          Francisco%López-Medrano%NULL%2,          Rafael%San Juan%NULL%2,          Esther%González%NULL%2,          Natalia%Polanco%NULL%2,          María D.%Folgueira%NULL%2,          Antonio%Lalueza%NULL%2,          Carlos%Lumbreras%NULL%2,          José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,          Bruno%Moulin%NULL%1,          Samira%Fafi-Kremer%NULL%2,          Ilies%Benotmane%NULL%1,          Gabriela%Gautier%NULL%1,          Peggy%Perrin%NULL%1,          Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,          Beatrice%Borchi%NULL%1,          Annarita%Botta%NULL%2,          Annarita%Botta%NULL%0,          Alfredo%Bagalà%NULL%2,          Alfredo%Bagalà%NULL%0,          Gianmarco%Lugli%NULL%1,          Marta%Tilli%NULL%2,          Marta%Tilli%NULL%0,          Annalisa%Cavallo%NULL%1,          Brunilda%Xhaferi%NULL%1,          Roberta%Cutruzzulà%NULL%1,          Augusto%Vaglio%NULL%1,          Silvia%Bresci%NULL%1,          Aida%Larti%NULL%1,          Alessandro%Bartoloni%NULL%1,          Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,          Lei%Liu%NULL%0,          Wenyuan%Li%NULL%1,          Hongtao%Liu%NULL%1,          Jizhou%Wang%NULL%1,          Ziqin%Yao%NULL%1,          Shengyu%Zhang%NULL%1,          Desheng%Zhao%NULL%1,          Björn%Nashan%NULL%1,          Aizong%Shen%NULL%1,          Lianxin%Liu%NULL%2,          Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,          Xin%Li%NULL%3,          Guanghui%Cao%NULL%1,          Xiaoqiang%Wu%NULL%1,          Zhiwei%Wang%NULL%1,          Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,          Yan%Chen%NULL%1,          Quan%Yuan%NULL%1,          Qiu-Xiang%Xia%NULL%1,          Xian-Peng%Zeng%NULL%1,          Jing-Tao%Peng%NULL%1,          Jing%Liu%NULL%3,          Xing-Yuan%Xiao%NULL%1,          Guo-Song%Jiang%NULL%1,          Han-Yu%Xiao%NULL%1,          Liang-Bo%Xie%NULL%1,          Jing%Chen%NULL%2,          Jia-Li%Liu%NULL%1,          Xiong%Xiao%NULL%1,          Hua%Su%NULL%1,          Chun%Zhang%NULL%1,          Xiao-Ping%Zhang%NULL%1,          Hua%Yang%NULL%1,          Heng%Li%NULL%1,          Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,          Qin%Yin%NULL%1,          Huibo%Shi%NULL%2,          Dunfeng%Du%NULL%1,          Sheng%Chang%NULL%1,          Li%Ni%NULL%1,          Haifang%Qiu%NULL%1,          Zhishui%Chen%NULL%2,          Jixian%Zhang%NULL%1,          Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,          Marta%Colaneri%NULL%1,          Margherita%Sambo%NULL%1,          Ilaria%Gallazzi%NULL%1,          Angela%Di Matteo%NULL%1,          Silvia%Roda%NULL%1,          Raffaele%Bruno%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,          Marco%Delsante%NULL%1,          Enrico%Fiaccadori%NULL%1,          Gianluigi%Zaza%NULL%1,          Lucio%Manenti%NULL%1,          Anna%Degli Antoni%NULL%1,          Licia%Peruzzi%NULL%1,          Leonardo V.%Riella%NULL%1,          Paolo%Cravedi%NULL%1,          Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,          Gaston J.%Pineiro%NULL%1,          Ignacio%Revuelta%NULL%1,          Diana%Rodriguez%NULL%1,          Marta%Bodro%NULL%1,          Asunción%Moreno%NULL%1,          Josep M.%Campistol%NULL%1,          Fritz%Diekmann%NULL%1,          Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,          Amado%Andrés%NULL%0,          Carmelo%Loinaz%NULL%0,          Juan F.%Delgado%NULL%0,          Francisco%López-Medrano%NULL%0,          Rafael%San Juan%NULL%0,          Esther%González%NULL%0,          Natalia%Polanco%NULL%0,          María D.%Folgueira%NULL%0,          Antonio%Lalueza%NULL%0,          Carlos%Lumbreras%NULL%0,          José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,          Qiuyan%Zhang%NULL%1,          Haoyang%Xia%NULL%1,          Aiping%Wang%NULL%1,          Wenjin%Liang%NULL%1,          Wei%Zhou%NULL%1,          Lihua%Zhou%NULL%1,          Xiao%Liu%NULL%1,          Lingzhang%Rao%NULL%1,          Zhifeng%Li%NULL%1,          Zhiyong%Peng%NULL%1,          Pingzheng%Mo%NULL%0,          Yong%Xiong%NULL%0,          Shaojun%Ye%NULL%1,          Yanfeng%Wang%NULL%1,          Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,   Haitao%Wang%xref no email%1,   Xian%Qin%xref no email%1,   Peng%Zhang%xref no email%1,   Lihua%Zhu%xref no email%1,   Jingjing%Cai%xref no email%1,   Yufeng%Yuan%xref no email%1,   Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,          Kenneth I.%Zheng%NULL%1,          Jacob%George%NULL%1,          Hai-Nv%Gao%NULL%1,          Ru-Nan%Wei%NULL%1,          Hua-Dong%Yan%NULL%1,          Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,          Yangzhong%Wang%NULL%1,          Yuanyuan%Zhao%NULL%1,          Huibo%Shi%NULL%0,          Fanjun%Zeng%NULL%1,          Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,          Roberta Elisa%Rossi%NULL%1,          Davide%Citterio%NULL%1,          Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,    Simona%De Michele%xref no email%1,    Michael J.%Lee%xref no email%1,    Jean C.%Emond%xref no email%1,    Adam D.%Griesemer%xref no email%1,    Sheryl A.%Tulin-Silver%xref no email%1,    Elizabeth C.%Verna%xref no email%1,    Mercedes%Martinez%xref no email%1,    Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,           Amado%Andrés%NULL%2,           Carmelo%Loinaz%NULL%2,           Juan F.%Delgado%NULL%2,           Francisco%López-Medrano%NULL%2,           Rafael%San Juan%NULL%2,           Esther%González%NULL%2,           Natalia%Polanco%NULL%2,           María D.%Folgueira%NULL%2,           Antonio%Lalueza%NULL%2,           Carlos%Lumbreras%NULL%2,           José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,           Bruno%Moulin%NULL%1,           Samira%Fafi-Kremer%NULL%2,           Ilies%Benotmane%NULL%1,           Gabriela%Gautier%NULL%1,           Peggy%Perrin%NULL%1,           Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,           Beatrice%Borchi%NULL%0,           Annarita%Botta%NULL%0,           Annarita%Botta%NULL%0,           Alfredo%Bagalà%NULL%2,           Alfredo%Bagalà%NULL%0,           Gianmarco%Lugli%NULL%1,           Marta%Tilli%NULL%0,           Marta%Tilli%NULL%0,           Annalisa%Cavallo%NULL%1,           Brunilda%Xhaferi%NULL%1,           Roberta%Cutruzzulà%NULL%1,           Augusto%Vaglio%NULL%1,           Silvia%Bresci%NULL%1,           Aida%Larti%NULL%1,           Alessandro%Bartoloni%NULL%0,           Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,           Lei%Liu%NULL%0,           Wenyuan%Li%NULL%1,           Hongtao%Liu%NULL%1,           Jizhou%Wang%NULL%1,           Ziqin%Yao%NULL%1,           Shengyu%Zhang%NULL%1,           Desheng%Zhao%NULL%1,           Björn%Nashan%NULL%1,           Aizong%Shen%NULL%1,           Lianxin%Liu%NULL%2,           Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,           Xin%Li%NULL%0,           Guanghui%Cao%NULL%1,           Xiaoqiang%Wu%NULL%1,           Zhiwei%Wang%NULL%1,           Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,           Yan%Chen%NULL%1,           Quan%Yuan%NULL%1,           Qiu-Xiang%Xia%NULL%1,           Xian-Peng%Zeng%NULL%1,           Jing-Tao%Peng%NULL%1,           Jing%Liu%NULL%0,           Xing-Yuan%Xiao%NULL%1,           Guo-Song%Jiang%NULL%1,           Han-Yu%Xiao%NULL%1,           Liang-Bo%Xie%NULL%1,           Jing%Chen%NULL%2,           Jia-Li%Liu%NULL%1,           Xiong%Xiao%NULL%1,           Hua%Su%NULL%1,           Chun%Zhang%NULL%1,           Xiao-Ping%Zhang%NULL%1,           Hua%Yang%NULL%1,           Heng%Li%NULL%1,           Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,           Qin%Yin%NULL%1,           Huibo%Shi%NULL%2,           Dunfeng%Du%NULL%1,           Sheng%Chang%NULL%1,           Li%Ni%NULL%1,           Haifang%Qiu%NULL%1,           Zhishui%Chen%NULL%2,           Jixian%Zhang%NULL%1,           Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,           Marta%Colaneri%NULL%1,           Margherita%Sambo%NULL%1,           Ilaria%Gallazzi%NULL%1,           Angela%Di Matteo%NULL%1,           Silvia%Roda%NULL%1,           Raffaele%Bruno%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,           Marco%Delsante%NULL%1,           Enrico%Fiaccadori%NULL%1,           Gianluigi%Zaza%NULL%1,           Lucio%Manenti%NULL%1,           Anna%Degli Antoni%NULL%1,           Licia%Peruzzi%NULL%1,           Leonardo V.%Riella%NULL%1,           Paolo%Cravedi%NULL%1,           Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,           Gaston J.%Pineiro%NULL%1,           Ignacio%Revuelta%NULL%1,           Diana%Rodriguez%NULL%1,           Marta%Bodro%NULL%1,           Asunción%Moreno%NULL%1,           Josep M.%Campistol%NULL%1,           Fritz%Diekmann%NULL%1,           Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,           Amado%Andrés%NULL%0,           Carmelo%Loinaz%NULL%0,           Juan F.%Delgado%NULL%0,           Francisco%López-Medrano%NULL%0,           Rafael%San Juan%NULL%0,           Esther%González%NULL%0,           Natalia%Polanco%NULL%0,           María D.%Folgueira%NULL%0,           Antonio%Lalueza%NULL%0,           Carlos%Lumbreras%NULL%0,           José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,           Qiuyan%Zhang%NULL%1,           Haoyang%Xia%NULL%1,           Aiping%Wang%NULL%1,           Wenjin%Liang%NULL%1,           Wei%Zhou%NULL%1,           Lihua%Zhou%NULL%1,           Xiao%Liu%NULL%1,           Lingzhang%Rao%NULL%1,           Zhifeng%Li%NULL%1,           Zhiyong%Peng%NULL%0,           Pingzheng%Mo%NULL%0,           Yong%Xiong%NULL%0,           Shaojun%Ye%NULL%1,           Yanfeng%Wang%NULL%1,           Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,    Haitao%Wang%xref no email%1,    Xian%Qin%xref no email%1,    Peng%Zhang%xref no email%1,    Lihua%Zhu%xref no email%1,    Jingjing%Cai%xref no email%1,    Yufeng%Yuan%xref no email%1,    Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,           Kenneth I.%Zheng%NULL%1,           Jacob%George%NULL%1,           Hai-Nv%Gao%NULL%1,           Ru-Nan%Wei%NULL%1,           Hua-Dong%Yan%NULL%1,           Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,           Yangzhong%Wang%NULL%1,           Yuanyuan%Zhao%NULL%1,           Huibo%Shi%NULL%0,           Fanjun%Zeng%NULL%1,           Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,           Roberta Elisa%Rossi%NULL%1,           Davide%Citterio%NULL%1,           Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1223,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1150,7 +1252,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1179,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1208,7 +1310,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1237,7 +1339,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1266,7 +1368,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1295,7 +1397,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1324,7 +1426,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1353,7 +1455,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1382,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1411,7 +1513,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1440,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1469,7 +1571,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1498,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1527,7 +1629,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1556,7 +1658,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1585,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="301">
   <si>
     <t>Doi</t>
   </si>
@@ -888,6 +888,108 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,           Roberta Elisa%Rossi%NULL%1,           Davide%Citterio%NULL%1,           Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,     Simona%De Michele%xref no email%1,     Michael J.%Lee%xref no email%1,     Jean C.%Emond%xref no email%1,     Adam D.%Griesemer%xref no email%1,     Sheryl A.%Tulin-Silver%xref no email%1,     Elizabeth C.%Verna%xref no email%1,     Mercedes%Martinez%xref no email%1,     Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,            Amado%Andrés%NULL%2,            Carmelo%Loinaz%NULL%2,            Juan F.%Delgado%NULL%2,            Francisco%López-Medrano%NULL%2,            Rafael%San Juan%NULL%2,            Esther%González%NULL%2,            Natalia%Polanco%NULL%2,            María D.%Folgueira%NULL%2,            Antonio%Lalueza%NULL%2,            Carlos%Lumbreras%NULL%2,            José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,            Bruno%Moulin%NULL%1,            Samira%Fafi-Kremer%NULL%2,            Ilies%Benotmane%NULL%1,            Gabriela%Gautier%NULL%1,            Peggy%Perrin%NULL%1,            Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,            Beatrice%Borchi%NULL%1,            Annarita%Botta%NULL%2,            Annarita%Botta%NULL%0,            Alfredo%Bagalà%NULL%2,            Alfredo%Bagalà%NULL%0,            Gianmarco%Lugli%NULL%1,            Marta%Tilli%NULL%2,            Marta%Tilli%NULL%0,            Annalisa%Cavallo%NULL%1,            Brunilda%Xhaferi%NULL%1,            Roberta%Cutruzzulà%NULL%1,            Augusto%Vaglio%NULL%1,            Silvia%Bresci%NULL%1,            Aida%Larti%NULL%1,            Alessandro%Bartoloni%NULL%1,            Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,            Lei%Liu%NULL%0,            Wenyuan%Li%NULL%1,            Hongtao%Liu%NULL%1,            Jizhou%Wang%NULL%1,            Ziqin%Yao%NULL%1,            Shengyu%Zhang%NULL%1,            Desheng%Zhao%NULL%1,            Björn%Nashan%NULL%1,            Aizong%Shen%NULL%1,            Lianxin%Liu%NULL%2,            Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,            Xin%Li%NULL%3,            Guanghui%Cao%NULL%1,            Xiaoqiang%Wu%NULL%1,            Zhiwei%Wang%NULL%1,            Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,            Yan%Chen%NULL%1,            Quan%Yuan%NULL%1,            Qiu-Xiang%Xia%NULL%1,            Xian-Peng%Zeng%NULL%1,            Jing-Tao%Peng%NULL%1,            Jing%Liu%NULL%3,            Xing-Yuan%Xiao%NULL%1,            Guo-Song%Jiang%NULL%1,            Han-Yu%Xiao%NULL%1,            Liang-Bo%Xie%NULL%1,            Jing%Chen%NULL%2,            Jia-Li%Liu%NULL%1,            Xiong%Xiao%NULL%1,            Hua%Su%NULL%1,            Chun%Zhang%NULL%1,            Xiao-Ping%Zhang%NULL%1,            Hua%Yang%NULL%1,            Heng%Li%NULL%1,            Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,            Qin%Yin%NULL%1,            Huibo%Shi%NULL%2,            Dunfeng%Du%NULL%1,            Sheng%Chang%NULL%1,            Li%Ni%NULL%1,            Haifang%Qiu%NULL%1,            Zhishui%Chen%NULL%2,            Jixian%Zhang%NULL%1,            Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,            Marta%Colaneri%NULL%1,            Margherita%Sambo%NULL%1,            Ilaria%Gallazzi%NULL%1,            Angela%Di Matteo%NULL%1,            Silvia%Roda%NULL%1,            Raffaele%Bruno%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,            Marco%Delsante%NULL%1,            Enrico%Fiaccadori%NULL%1,            Gianluigi%Zaza%NULL%1,            Lucio%Manenti%NULL%1,            Anna%Degli Antoni%NULL%1,            Licia%Peruzzi%NULL%1,            Leonardo V.%Riella%NULL%1,            Paolo%Cravedi%NULL%1,            Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,            Gaston J.%Pineiro%NULL%1,            Ignacio%Revuelta%NULL%1,            Diana%Rodriguez%NULL%1,            Marta%Bodro%NULL%1,            Asunción%Moreno%NULL%1,            Josep M.%Campistol%NULL%1,            Fritz%Diekmann%NULL%1,            Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,            Amado%Andrés%NULL%0,            Carmelo%Loinaz%NULL%0,            Juan F.%Delgado%NULL%0,            Francisco%López-Medrano%NULL%0,            Rafael%San Juan%NULL%0,            Esther%González%NULL%0,            Natalia%Polanco%NULL%0,            María D.%Folgueira%NULL%0,            Antonio%Lalueza%NULL%0,            Carlos%Lumbreras%NULL%0,            José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,            Qiuyan%Zhang%NULL%1,            Haoyang%Xia%NULL%1,            Aiping%Wang%NULL%1,            Wenjin%Liang%NULL%1,            Wei%Zhou%NULL%1,            Lihua%Zhou%NULL%1,            Xiao%Liu%NULL%1,            Lingzhang%Rao%NULL%1,            Zhifeng%Li%NULL%1,            Zhiyong%Peng%NULL%1,            Pingzheng%Mo%NULL%0,            Yong%Xiong%NULL%0,            Shaojun%Ye%NULL%1,            Yanfeng%Wang%NULL%1,            Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,     Haitao%Wang%xref no email%1,     Xian%Qin%xref no email%1,     Peng%Zhang%xref no email%1,     Lihua%Zhu%xref no email%1,     Jingjing%Cai%xref no email%1,     Yufeng%Yuan%xref no email%1,     Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,            Kenneth I.%Zheng%NULL%1,            Jacob%George%NULL%1,            Hai-Nv%Gao%NULL%1,            Ru-Nan%Wei%NULL%1,            Hua-Dong%Yan%NULL%1,            Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,            Yangzhong%Wang%NULL%1,            Yuanyuan%Zhao%NULL%1,            Huibo%Shi%NULL%0,            Fanjun%Zeng%NULL%1,            Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,            Roberta Elisa%Rossi%NULL%1,            Davide%Citterio%NULL%1,            Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,      Simona%De Michele%xref no email%1,      Michael J.%Lee%xref no email%1,      Jean C.%Emond%xref no email%1,      Adam D.%Griesemer%xref no email%1,      Sheryl A.%Tulin-Silver%xref no email%1,      Elizabeth C.%Verna%xref no email%1,      Mercedes%Martinez%xref no email%1,      Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,             Amado%Andrés%NULL%2,             Carmelo%Loinaz%NULL%2,             Juan F.%Delgado%NULL%2,             Francisco%López-Medrano%NULL%2,             Rafael%San Juan%NULL%2,             Esther%González%NULL%2,             Natalia%Polanco%NULL%2,             María D.%Folgueira%NULL%2,             Antonio%Lalueza%NULL%2,             Carlos%Lumbreras%NULL%2,             José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,             Bruno%Moulin%NULL%1,             Samira%Fafi-Kremer%NULL%2,             Ilies%Benotmane%NULL%1,             Gabriela%Gautier%NULL%1,             Peggy%Perrin%NULL%1,             Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,             Beatrice%Borchi%NULL%1,             Annarita%Botta%NULL%2,             Annarita%Botta%NULL%0,             Alfredo%Bagalà%NULL%2,             Alfredo%Bagalà%NULL%0,             Gianmarco%Lugli%NULL%1,             Marta%Tilli%NULL%2,             Marta%Tilli%NULL%0,             Annalisa%Cavallo%NULL%1,             Brunilda%Xhaferi%NULL%1,             Roberta%Cutruzzulà%NULL%1,             Augusto%Vaglio%NULL%1,             Silvia%Bresci%NULL%1,             Aida%Larti%NULL%1,             Alessandro%Bartoloni%NULL%1,             Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,             Lei%Liu%NULL%0,             Wenyuan%Li%NULL%1,             Hongtao%Liu%NULL%1,             Jizhou%Wang%NULL%1,             Ziqin%Yao%NULL%1,             Shengyu%Zhang%NULL%1,             Desheng%Zhao%NULL%1,             Björn%Nashan%NULL%1,             Aizong%Shen%NULL%1,             Lianxin%Liu%NULL%2,             Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,             Xin%Li%NULL%3,             Guanghui%Cao%NULL%1,             Xiaoqiang%Wu%NULL%1,             Zhiwei%Wang%NULL%1,             Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,             Yan%Chen%NULL%1,             Quan%Yuan%NULL%1,             Qiu-Xiang%Xia%NULL%1,             Xian-Peng%Zeng%NULL%1,             Jing-Tao%Peng%NULL%1,             Jing%Liu%NULL%3,             Xing-Yuan%Xiao%NULL%1,             Guo-Song%Jiang%NULL%1,             Han-Yu%Xiao%NULL%1,             Liang-Bo%Xie%NULL%1,             Jing%Chen%NULL%2,             Jia-Li%Liu%NULL%1,             Xiong%Xiao%NULL%1,             Hua%Su%NULL%1,             Chun%Zhang%NULL%1,             Xiao-Ping%Zhang%NULL%1,             Hua%Yang%NULL%1,             Heng%Li%NULL%1,             Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,             Qin%Yin%NULL%1,             Huibo%Shi%NULL%2,             Dunfeng%Du%NULL%1,             Sheng%Chang%NULL%1,             Li%Ni%NULL%1,             Haifang%Qiu%NULL%1,             Zhishui%Chen%NULL%2,             Jixian%Zhang%NULL%1,             Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,             Marta%Colaneri%NULL%1,             Margherita%Sambo%NULL%1,             Ilaria%Gallazzi%NULL%1,             Angela%Di Matteo%NULL%1,             Silvia%Roda%NULL%1,             Raffaele%Bruno%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,             Marco%Delsante%NULL%1,             Enrico%Fiaccadori%NULL%1,             Gianluigi%Zaza%NULL%1,             Lucio%Manenti%NULL%1,             Anna%Degli Antoni%NULL%1,             Licia%Peruzzi%NULL%1,             Leonardo V.%Riella%NULL%1,             Paolo%Cravedi%NULL%1,             Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,             Gaston J.%Pineiro%NULL%1,             Ignacio%Revuelta%NULL%1,             Diana%Rodriguez%NULL%1,             Marta%Bodro%NULL%1,             Asunción%Moreno%NULL%1,             Josep M.%Campistol%NULL%1,             Fritz%Diekmann%NULL%1,             Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,             Amado%Andrés%NULL%0,             Carmelo%Loinaz%NULL%0,             Juan F.%Delgado%NULL%0,             Francisco%López-Medrano%NULL%0,             Rafael%San Juan%NULL%0,             Esther%González%NULL%0,             Natalia%Polanco%NULL%0,             María D.%Folgueira%NULL%0,             Antonio%Lalueza%NULL%0,             Carlos%Lumbreras%NULL%0,             José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,             Qiuyan%Zhang%NULL%1,             Haoyang%Xia%NULL%1,             Aiping%Wang%NULL%1,             Wenjin%Liang%NULL%1,             Wei%Zhou%NULL%1,             Lihua%Zhou%NULL%1,             Xiao%Liu%NULL%1,             Lingzhang%Rao%NULL%1,             Zhifeng%Li%NULL%1,             Zhiyong%Peng%NULL%1,             Pingzheng%Mo%NULL%0,             Yong%Xiong%NULL%0,             Shaojun%Ye%NULL%1,             Yanfeng%Wang%NULL%1,             Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,      Haitao%Wang%xref no email%1,      Xian%Qin%xref no email%1,      Peng%Zhang%xref no email%1,      Lihua%Zhu%xref no email%1,      Jingjing%Cai%xref no email%1,      Yufeng%Yuan%xref no email%1,      Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,             Kenneth I.%Zheng%NULL%1,             Jacob%George%NULL%1,             Hai-Nv%Gao%NULL%1,             Ru-Nan%Wei%NULL%1,             Hua-Dong%Yan%NULL%1,             Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,             Yangzhong%Wang%NULL%1,             Yuanyuan%Zhao%NULL%1,             Huibo%Shi%NULL%0,             Fanjun%Zeng%NULL%1,             Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,             Roberta Elisa%Rossi%NULL%1,             Davide%Citterio%NULL%1,             Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1325,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1252,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1281,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1310,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1339,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1368,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1397,7 +1499,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1426,7 +1528,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1455,7 +1557,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1484,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1513,7 +1615,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1542,7 +1644,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1571,7 +1673,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1600,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1629,7 +1731,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1658,7 +1760,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1687,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="318">
   <si>
     <t>Doi</t>
   </si>
@@ -990,6 +990,57 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,             Roberta Elisa%Rossi%NULL%1,             Davide%Citterio%NULL%1,             Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,       Simona%De Michele%xref no email%1,       Michael J.%Lee%xref no email%1,       Jean C.%Emond%xref no email%1,       Adam D.%Griesemer%xref no email%1,       Sheryl A.%Tulin-Silver%xref no email%1,       Elizabeth C.%Verna%xref no email%1,       Mercedes%Martinez%xref no email%1,       Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,              Amado%Andrés%NULL%2,              Carmelo%Loinaz%NULL%2,              Juan F.%Delgado%NULL%2,              Francisco%López-Medrano%NULL%2,              Rafael%San Juan%NULL%2,              Esther%González%NULL%2,              Natalia%Polanco%NULL%2,              María D.%Folgueira%NULL%2,              Antonio%Lalueza%NULL%2,              Carlos%Lumbreras%NULL%2,              José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,              Bruno%Moulin%NULL%1,              Samira%Fafi-Kremer%NULL%2,              Ilies%Benotmane%NULL%1,              Gabriela%Gautier%NULL%1,              Peggy%Perrin%NULL%1,              Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,              Beatrice%Borchi%NULL%1,              Annarita%Botta%NULL%2,              Annarita%Botta%NULL%0,              Alfredo%Bagalà%NULL%2,              Alfredo%Bagalà%NULL%0,              Gianmarco%Lugli%NULL%1,              Marta%Tilli%NULL%2,              Marta%Tilli%NULL%0,              Annalisa%Cavallo%NULL%1,              Brunilda%Xhaferi%NULL%1,              Roberta%Cutruzzulà%NULL%1,              Augusto%Vaglio%NULL%1,              Silvia%Bresci%NULL%1,              Aida%Larti%NULL%1,              Alessandro%Bartoloni%NULL%1,              Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,              Lei%Liu%NULL%0,              Wenyuan%Li%NULL%1,              Hongtao%Liu%NULL%1,              Jizhou%Wang%NULL%1,              Ziqin%Yao%NULL%1,              Shengyu%Zhang%NULL%1,              Desheng%Zhao%NULL%1,              Björn%Nashan%NULL%1,              Aizong%Shen%NULL%1,              Lianxin%Liu%NULL%2,              Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,              Xin%Li%NULL%3,              Guanghui%Cao%NULL%1,              Xiaoqiang%Wu%NULL%1,              Zhiwei%Wang%NULL%1,              Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,              Yan%Chen%NULL%1,              Quan%Yuan%NULL%1,              Qiu-Xiang%Xia%NULL%1,              Xian-Peng%Zeng%NULL%1,              Jing-Tao%Peng%NULL%1,              Jing%Liu%NULL%3,              Xing-Yuan%Xiao%NULL%1,              Guo-Song%Jiang%NULL%1,              Han-Yu%Xiao%NULL%1,              Liang-Bo%Xie%NULL%1,              Jing%Chen%NULL%2,              Jia-Li%Liu%NULL%1,              Xiong%Xiao%NULL%1,              Hua%Su%NULL%1,              Chun%Zhang%NULL%1,              Xiao-Ping%Zhang%NULL%1,              Hua%Yang%NULL%1,              Heng%Li%NULL%1,              Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,              Qin%Yin%NULL%1,              Huibo%Shi%NULL%2,              Dunfeng%Du%NULL%1,              Sheng%Chang%NULL%1,              Li%Ni%NULL%1,              Haifang%Qiu%NULL%1,              Zhishui%Chen%NULL%2,              Jixian%Zhang%NULL%1,              Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,              Marta%Colaneri%NULL%1,              Margherita%Sambo%NULL%1,              Ilaria%Gallazzi%NULL%1,              Angela%Di Matteo%NULL%1,              Silvia%Roda%NULL%1,              Raffaele%Bruno%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,              Marco%Delsante%NULL%1,              Enrico%Fiaccadori%NULL%1,              Gianluigi%Zaza%NULL%1,              Lucio%Manenti%NULL%1,              Anna%Degli Antoni%NULL%1,              Licia%Peruzzi%NULL%1,              Leonardo V.%Riella%NULL%1,              Paolo%Cravedi%NULL%1,              Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,              Gaston J.%Pineiro%NULL%1,              Ignacio%Revuelta%NULL%1,              Diana%Rodriguez%NULL%1,              Marta%Bodro%NULL%1,              Asunción%Moreno%NULL%1,              Josep M.%Campistol%NULL%1,              Fritz%Diekmann%NULL%1,              Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,              Amado%Andrés%NULL%0,              Carmelo%Loinaz%NULL%0,              Juan F.%Delgado%NULL%0,              Francisco%López-Medrano%NULL%0,              Rafael%San Juan%NULL%0,              Esther%González%NULL%0,              Natalia%Polanco%NULL%0,              María D.%Folgueira%NULL%0,              Antonio%Lalueza%NULL%0,              Carlos%Lumbreras%NULL%0,              José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,              Qiuyan%Zhang%NULL%1,              Haoyang%Xia%NULL%1,              Aiping%Wang%NULL%1,              Wenjin%Liang%NULL%1,              Wei%Zhou%NULL%1,              Lihua%Zhou%NULL%1,              Xiao%Liu%NULL%1,              Lingzhang%Rao%NULL%1,              Zhifeng%Li%NULL%1,              Zhiyong%Peng%NULL%1,              Pingzheng%Mo%NULL%0,              Yong%Xiong%NULL%0,              Shaojun%Ye%NULL%1,              Yanfeng%Wang%NULL%1,              Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,       Haitao%Wang%xref no email%1,       Xian%Qin%xref no email%1,       Peng%Zhang%xref no email%1,       Lihua%Zhu%xref no email%1,       Jingjing%Cai%xref no email%1,       Yufeng%Yuan%xref no email%1,       Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,              Kenneth I.%Zheng%NULL%1,              Jacob%George%NULL%1,              Hai-Nv%Gao%NULL%1,              Ru-Nan%Wei%NULL%1,              Hua-Dong%Yan%NULL%1,              Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,              Yangzhong%Wang%NULL%1,              Yuanyuan%Zhao%NULL%1,              Huibo%Shi%NULL%0,              Fanjun%Zeng%NULL%1,              Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,              Roberta Elisa%Rossi%NULL%1,              Davide%Citterio%NULL%1,              Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1376,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1354,7 +1405,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1383,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1412,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1441,7 +1492,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1470,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1499,7 +1550,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1528,7 +1579,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1557,7 +1608,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1586,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1615,7 +1666,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1644,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1673,7 +1724,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1702,7 +1753,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1731,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1760,7 +1811,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1789,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="335">
   <si>
     <t>Doi</t>
   </si>
@@ -1041,6 +1041,57 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,              Roberta Elisa%Rossi%NULL%1,              Davide%Citterio%NULL%1,              Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,        Simona%De Michele%xref no email%1,        Michael J.%Lee%xref no email%1,        Jean C.%Emond%xref no email%1,        Adam D.%Griesemer%xref no email%1,        Sheryl A.%Tulin-Silver%xref no email%1,        Elizabeth C.%Verna%xref no email%1,        Mercedes%Martinez%xref no email%1,        Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,               Amado%Andrés%NULL%2,               Carmelo%Loinaz%NULL%2,               Juan F.%Delgado%NULL%2,               Francisco%López-Medrano%NULL%2,               Rafael%San Juan%NULL%2,               Esther%González%NULL%2,               Natalia%Polanco%NULL%2,               María D.%Folgueira%NULL%2,               Antonio%Lalueza%NULL%2,               Carlos%Lumbreras%NULL%2,               José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,               Bruno%Moulin%NULL%1,               Samira%Fafi-Kremer%NULL%2,               Ilies%Benotmane%NULL%1,               Gabriela%Gautier%NULL%1,               Peggy%Perrin%NULL%1,               Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,               Beatrice%Borchi%NULL%1,               Annarita%Botta%NULL%2,               Annarita%Botta%NULL%0,               Alfredo%Bagalà%NULL%2,               Alfredo%Bagalà%NULL%0,               Gianmarco%Lugli%NULL%1,               Marta%Tilli%NULL%2,               Marta%Tilli%NULL%0,               Annalisa%Cavallo%NULL%1,               Brunilda%Xhaferi%NULL%1,               Roberta%Cutruzzulà%NULL%1,               Augusto%Vaglio%NULL%1,               Silvia%Bresci%NULL%1,               Aida%Larti%NULL%1,               Alessandro%Bartoloni%NULL%1,               Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,               Lei%Liu%NULL%0,               Wenyuan%Li%NULL%1,               Hongtao%Liu%NULL%1,               Jizhou%Wang%NULL%1,               Ziqin%Yao%NULL%1,               Shengyu%Zhang%NULL%1,               Desheng%Zhao%NULL%1,               Björn%Nashan%NULL%1,               Aizong%Shen%NULL%1,               Lianxin%Liu%NULL%2,               Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,               Xin%Li%NULL%3,               Guanghui%Cao%NULL%1,               Xiaoqiang%Wu%NULL%1,               Zhiwei%Wang%NULL%1,               Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,               Yan%Chen%NULL%1,               Quan%Yuan%NULL%1,               Qiu-Xiang%Xia%NULL%1,               Xian-Peng%Zeng%NULL%1,               Jing-Tao%Peng%NULL%1,               Jing%Liu%NULL%3,               Xing-Yuan%Xiao%NULL%1,               Guo-Song%Jiang%NULL%1,               Han-Yu%Xiao%NULL%1,               Liang-Bo%Xie%NULL%1,               Jing%Chen%NULL%2,               Jia-Li%Liu%NULL%1,               Xiong%Xiao%NULL%1,               Hua%Su%NULL%1,               Chun%Zhang%NULL%1,               Xiao-Ping%Zhang%NULL%1,               Hua%Yang%NULL%1,               Heng%Li%NULL%1,               Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,               Qin%Yin%NULL%1,               Huibo%Shi%NULL%2,               Dunfeng%Du%NULL%1,               Sheng%Chang%NULL%1,               Li%Ni%NULL%1,               Haifang%Qiu%NULL%1,               Zhishui%Chen%NULL%2,               Jixian%Zhang%NULL%1,               Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,               Marta%Colaneri%NULL%1,               Margherita%Sambo%NULL%1,               Ilaria%Gallazzi%NULL%1,               Angela%Di Matteo%NULL%1,               Silvia%Roda%NULL%1,               Raffaele%Bruno%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,               Marco%Delsante%NULL%1,               Enrico%Fiaccadori%NULL%1,               Gianluigi%Zaza%NULL%1,               Lucio%Manenti%NULL%1,               Anna%Degli Antoni%NULL%1,               Licia%Peruzzi%NULL%1,               Leonardo V.%Riella%NULL%1,               Paolo%Cravedi%NULL%1,               Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,               Gaston J.%Pineiro%NULL%1,               Ignacio%Revuelta%NULL%1,               Diana%Rodriguez%NULL%1,               Marta%Bodro%NULL%1,               Asunción%Moreno%NULL%1,               Josep M.%Campistol%NULL%1,               Fritz%Diekmann%NULL%1,               Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,               Amado%Andrés%NULL%0,               Carmelo%Loinaz%NULL%0,               Juan F.%Delgado%NULL%0,               Francisco%López-Medrano%NULL%0,               Rafael%San Juan%NULL%0,               Esther%González%NULL%0,               Natalia%Polanco%NULL%0,               María D.%Folgueira%NULL%0,               Antonio%Lalueza%NULL%0,               Carlos%Lumbreras%NULL%0,               José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,               Qiuyan%Zhang%NULL%1,               Haoyang%Xia%NULL%1,               Aiping%Wang%NULL%1,               Wenjin%Liang%NULL%1,               Wei%Zhou%NULL%1,               Lihua%Zhou%NULL%1,               Xiao%Liu%NULL%1,               Lingzhang%Rao%NULL%1,               Zhifeng%Li%NULL%1,               Zhiyong%Peng%NULL%1,               Pingzheng%Mo%NULL%0,               Yong%Xiong%NULL%0,               Shaojun%Ye%NULL%1,               Yanfeng%Wang%NULL%1,               Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,        Haitao%Wang%xref no email%1,        Xian%Qin%xref no email%1,        Peng%Zhang%xref no email%1,        Lihua%Zhu%xref no email%1,        Jingjing%Cai%xref no email%1,        Yufeng%Yuan%xref no email%1,        Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,               Kenneth I.%Zheng%NULL%1,               Jacob%George%NULL%1,               Hai-Nv%Gao%NULL%1,               Ru-Nan%Wei%NULL%1,               Hua-Dong%Yan%NULL%1,               Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,               Yangzhong%Wang%NULL%1,               Yuanyuan%Zhao%NULL%1,               Huibo%Shi%NULL%0,               Fanjun%Zeng%NULL%1,               Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,               Roberta Elisa%Rossi%NULL%1,               Davide%Citterio%NULL%1,               Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1427,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1405,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1434,7 +1485,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1463,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1492,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1521,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1550,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1579,7 +1630,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1608,7 +1659,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1637,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1666,7 +1717,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1695,7 +1746,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1724,7 +1775,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1753,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1782,7 +1833,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1811,7 +1862,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1840,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="369">
   <si>
     <t>Doi</t>
   </si>
@@ -1092,6 +1092,108 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,               Roberta Elisa%Rossi%NULL%1,               Davide%Citterio%NULL%1,               Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,         Simona%De Michele%xref no email%1,         Michael J.%Lee%xref no email%1,         Jean C.%Emond%xref no email%1,         Adam D.%Griesemer%xref no email%1,         Sheryl A.%Tulin-Silver%xref no email%1,         Elizabeth C.%Verna%xref no email%1,         Mercedes%Martinez%xref no email%1,         Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                Amado%Andrés%NULL%2,                Carmelo%Loinaz%NULL%2,                Juan F.%Delgado%NULL%2,                Francisco%López-Medrano%NULL%2,                Rafael%San Juan%NULL%2,                Esther%González%NULL%2,                Natalia%Polanco%NULL%2,                María D.%Folgueira%NULL%2,                Antonio%Lalueza%NULL%2,                Carlos%Lumbreras%NULL%2,                José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                Bruno%Moulin%NULL%1,                Samira%Fafi-Kremer%NULL%2,                Ilies%Benotmane%NULL%1,                Gabriela%Gautier%NULL%1,                Peggy%Perrin%NULL%1,                Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                Beatrice%Borchi%NULL%1,                Annarita%Botta%NULL%2,                Annarita%Botta%NULL%0,                Alfredo%Bagalà%NULL%2,                Alfredo%Bagalà%NULL%0,                Gianmarco%Lugli%NULL%1,                Marta%Tilli%NULL%2,                Marta%Tilli%NULL%0,                Annalisa%Cavallo%NULL%1,                Brunilda%Xhaferi%NULL%1,                Roberta%Cutruzzulà%NULL%1,                Augusto%Vaglio%NULL%1,                Silvia%Bresci%NULL%1,                Aida%Larti%NULL%1,                Alessandro%Bartoloni%NULL%1,                Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                Lei%Liu%NULL%0,                Wenyuan%Li%NULL%1,                Hongtao%Liu%NULL%1,                Jizhou%Wang%NULL%1,                Ziqin%Yao%NULL%1,                Shengyu%Zhang%NULL%1,                Desheng%Zhao%NULL%1,                Björn%Nashan%NULL%1,                Aizong%Shen%NULL%1,                Lianxin%Liu%NULL%2,                Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                Xin%Li%NULL%3,                Guanghui%Cao%NULL%1,                Xiaoqiang%Wu%NULL%1,                Zhiwei%Wang%NULL%1,                Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                Yan%Chen%NULL%1,                Quan%Yuan%NULL%1,                Qiu-Xiang%Xia%NULL%1,                Xian-Peng%Zeng%NULL%1,                Jing-Tao%Peng%NULL%1,                Jing%Liu%NULL%3,                Xing-Yuan%Xiao%NULL%1,                Guo-Song%Jiang%NULL%1,                Han-Yu%Xiao%NULL%1,                Liang-Bo%Xie%NULL%1,                Jing%Chen%NULL%2,                Jia-Li%Liu%NULL%1,                Xiong%Xiao%NULL%1,                Hua%Su%NULL%1,                Chun%Zhang%NULL%1,                Xiao-Ping%Zhang%NULL%1,                Hua%Yang%NULL%1,                Heng%Li%NULL%1,                Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                Qin%Yin%NULL%1,                Huibo%Shi%NULL%2,                Dunfeng%Du%NULL%1,                Sheng%Chang%NULL%1,                Li%Ni%NULL%1,                Haifang%Qiu%NULL%1,                Zhishui%Chen%NULL%2,                Jixian%Zhang%NULL%1,                Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                Marta%Colaneri%NULL%1,                Margherita%Sambo%NULL%1,                Ilaria%Gallazzi%NULL%1,                Angela%Di Matteo%NULL%1,                Silvia%Roda%NULL%1,                Raffaele%Bruno%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                Marco%Delsante%NULL%1,                Enrico%Fiaccadori%NULL%1,                Gianluigi%Zaza%NULL%1,                Lucio%Manenti%NULL%1,                Anna%Degli Antoni%NULL%1,                Licia%Peruzzi%NULL%1,                Leonardo V.%Riella%NULL%1,                Paolo%Cravedi%NULL%1,                Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                Gaston J.%Pineiro%NULL%1,                Ignacio%Revuelta%NULL%1,                Diana%Rodriguez%NULL%1,                Marta%Bodro%NULL%1,                Asunción%Moreno%NULL%1,                Josep M.%Campistol%NULL%1,                Fritz%Diekmann%NULL%1,                Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                Amado%Andrés%NULL%0,                Carmelo%Loinaz%NULL%0,                Juan F.%Delgado%NULL%0,                Francisco%López-Medrano%NULL%0,                Rafael%San Juan%NULL%0,                Esther%González%NULL%0,                Natalia%Polanco%NULL%0,                María D.%Folgueira%NULL%0,                Antonio%Lalueza%NULL%0,                Carlos%Lumbreras%NULL%0,                José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                Qiuyan%Zhang%NULL%1,                Haoyang%Xia%NULL%1,                Aiping%Wang%NULL%1,                Wenjin%Liang%NULL%1,                Wei%Zhou%NULL%1,                Lihua%Zhou%NULL%1,                Xiao%Liu%NULL%1,                Lingzhang%Rao%NULL%1,                Zhifeng%Li%NULL%1,                Zhiyong%Peng%NULL%1,                Pingzheng%Mo%NULL%0,                Yong%Xiong%NULL%0,                Shaojun%Ye%NULL%1,                Yanfeng%Wang%NULL%1,                Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,         Haitao%Wang%xref no email%1,         Xian%Qin%xref no email%1,         Peng%Zhang%xref no email%1,         Lihua%Zhu%xref no email%1,         Jingjing%Cai%xref no email%1,         Yufeng%Yuan%xref no email%1,         Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                Kenneth I.%Zheng%NULL%1,                Jacob%George%NULL%1,                Hai-Nv%Gao%NULL%1,                Ru-Nan%Wei%NULL%1,                Hua-Dong%Yan%NULL%1,                Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                Yangzhong%Wang%NULL%1,                Yuanyuan%Zhao%NULL%1,                Huibo%Shi%NULL%0,                Fanjun%Zeng%NULL%1,                Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                Roberta Elisa%Rossi%NULL%1,                Davide%Citterio%NULL%1,                Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,          Simona%De Michele%xref no email%1,          Michael J.%Lee%xref no email%1,          Jean C.%Emond%xref no email%1,          Adam D.%Griesemer%xref no email%1,          Sheryl A.%Tulin-Silver%xref no email%1,          Elizabeth C.%Verna%xref no email%1,          Mercedes%Martinez%xref no email%1,          Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                 Amado%Andrés%NULL%2,                 Carmelo%Loinaz%NULL%2,                 Juan F.%Delgado%NULL%2,                 Francisco%López-Medrano%NULL%2,                 Rafael%San Juan%NULL%2,                 Esther%González%NULL%2,                 Natalia%Polanco%NULL%2,                 María D.%Folgueira%NULL%2,                 Antonio%Lalueza%NULL%2,                 Carlos%Lumbreras%NULL%2,                 José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                 Bruno%Moulin%NULL%1,                 Samira%Fafi-Kremer%NULL%2,                 Ilies%Benotmane%NULL%1,                 Gabriela%Gautier%NULL%1,                 Peggy%Perrin%NULL%1,                 Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                 Beatrice%Borchi%NULL%1,                 Annarita%Botta%NULL%2,                 Annarita%Botta%NULL%0,                 Alfredo%Bagalà%NULL%2,                 Alfredo%Bagalà%NULL%0,                 Gianmarco%Lugli%NULL%1,                 Marta%Tilli%NULL%2,                 Marta%Tilli%NULL%0,                 Annalisa%Cavallo%NULL%1,                 Brunilda%Xhaferi%NULL%1,                 Roberta%Cutruzzulà%NULL%1,                 Augusto%Vaglio%NULL%1,                 Silvia%Bresci%NULL%1,                 Aida%Larti%NULL%1,                 Alessandro%Bartoloni%NULL%1,                 Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                 Lei%Liu%NULL%0,                 Wenyuan%Li%NULL%1,                 Hongtao%Liu%NULL%1,                 Jizhou%Wang%NULL%1,                 Ziqin%Yao%NULL%1,                 Shengyu%Zhang%NULL%1,                 Desheng%Zhao%NULL%1,                 Björn%Nashan%NULL%1,                 Aizong%Shen%NULL%1,                 Lianxin%Liu%NULL%2,                 Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                 Xin%Li%NULL%3,                 Guanghui%Cao%NULL%1,                 Xiaoqiang%Wu%NULL%1,                 Zhiwei%Wang%NULL%1,                 Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                 Yan%Chen%NULL%1,                 Quan%Yuan%NULL%1,                 Qiu-Xiang%Xia%NULL%1,                 Xian-Peng%Zeng%NULL%1,                 Jing-Tao%Peng%NULL%1,                 Jing%Liu%NULL%3,                 Xing-Yuan%Xiao%NULL%1,                 Guo-Song%Jiang%NULL%1,                 Han-Yu%Xiao%NULL%1,                 Liang-Bo%Xie%NULL%1,                 Jing%Chen%NULL%2,                 Jia-Li%Liu%NULL%1,                 Xiong%Xiao%NULL%1,                 Hua%Su%NULL%1,                 Chun%Zhang%NULL%1,                 Xiao-Ping%Zhang%NULL%1,                 Hua%Yang%NULL%1,                 Heng%Li%NULL%1,                 Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                 Qin%Yin%NULL%1,                 Huibo%Shi%NULL%2,                 Dunfeng%Du%NULL%1,                 Sheng%Chang%NULL%1,                 Li%Ni%NULL%1,                 Haifang%Qiu%NULL%1,                 Zhishui%Chen%NULL%2,                 Jixian%Zhang%NULL%1,                 Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                 Marta%Colaneri%NULL%1,                 Margherita%Sambo%NULL%1,                 Ilaria%Gallazzi%NULL%1,                 Angela%Di Matteo%NULL%1,                 Silvia%Roda%NULL%1,                 Raffaele%Bruno%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                 Marco%Delsante%NULL%1,                 Enrico%Fiaccadori%NULL%1,                 Gianluigi%Zaza%NULL%1,                 Lucio%Manenti%NULL%1,                 Anna%Degli Antoni%NULL%1,                 Licia%Peruzzi%NULL%1,                 Leonardo V.%Riella%NULL%1,                 Paolo%Cravedi%NULL%1,                 Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                 Gaston J.%Pineiro%NULL%1,                 Ignacio%Revuelta%NULL%1,                 Diana%Rodriguez%NULL%1,                 Marta%Bodro%NULL%1,                 Asunción%Moreno%NULL%1,                 Josep M.%Campistol%NULL%1,                 Fritz%Diekmann%NULL%1,                 Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                 Amado%Andrés%NULL%0,                 Carmelo%Loinaz%NULL%0,                 Juan F.%Delgado%NULL%0,                 Francisco%López-Medrano%NULL%0,                 Rafael%San Juan%NULL%0,                 Esther%González%NULL%0,                 Natalia%Polanco%NULL%0,                 María D.%Folgueira%NULL%0,                 Antonio%Lalueza%NULL%0,                 Carlos%Lumbreras%NULL%0,                 José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                 Qiuyan%Zhang%NULL%1,                 Haoyang%Xia%NULL%1,                 Aiping%Wang%NULL%1,                 Wenjin%Liang%NULL%1,                 Wei%Zhou%NULL%1,                 Lihua%Zhou%NULL%1,                 Xiao%Liu%NULL%1,                 Lingzhang%Rao%NULL%1,                 Zhifeng%Li%NULL%1,                 Zhiyong%Peng%NULL%1,                 Pingzheng%Mo%NULL%0,                 Yong%Xiong%NULL%0,                 Shaojun%Ye%NULL%1,                 Yanfeng%Wang%NULL%1,                 Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,          Haitao%Wang%xref no email%1,          Xian%Qin%xref no email%1,          Peng%Zhang%xref no email%1,          Lihua%Zhu%xref no email%1,          Jingjing%Cai%xref no email%1,          Yufeng%Yuan%xref no email%1,          Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                 Kenneth I.%Zheng%NULL%1,                 Jacob%George%NULL%1,                 Hai-Nv%Gao%NULL%1,                 Ru-Nan%Wei%NULL%1,                 Hua-Dong%Yan%NULL%1,                 Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                 Yangzhong%Wang%NULL%1,                 Yuanyuan%Zhao%NULL%1,                 Huibo%Shi%NULL%0,                 Fanjun%Zeng%NULL%1,                 Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                 Roberta Elisa%Rossi%NULL%1,                 Davide%Citterio%NULL%1,                 Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1529,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1456,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1485,7 +1587,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1514,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1543,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1572,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1601,7 +1703,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1630,7 +1732,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1659,7 +1761,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1688,7 +1790,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1717,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1746,7 +1848,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1775,7 +1877,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1804,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1833,7 +1935,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1862,7 +1964,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1891,7 +1993,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="386">
   <si>
     <t>Doi</t>
   </si>
@@ -1194,6 +1194,57 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,                 Roberta Elisa%Rossi%NULL%1,                 Davide%Citterio%NULL%1,                 Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,           Simona%De Michele%xref no email%1,           Michael J.%Lee%xref no email%1,           Jean C.%Emond%xref no email%1,           Adam D.%Griesemer%xref no email%1,           Sheryl A.%Tulin-Silver%xref no email%1,           Elizabeth C.%Verna%xref no email%1,           Mercedes%Martinez%xref no email%1,           Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                  Amado%Andrés%NULL%2,                  Carmelo%Loinaz%NULL%2,                  Juan F.%Delgado%NULL%2,                  Francisco%López-Medrano%NULL%2,                  Rafael%San Juan%NULL%2,                  Esther%González%NULL%2,                  Natalia%Polanco%NULL%2,                  María D.%Folgueira%NULL%2,                  Antonio%Lalueza%NULL%2,                  Carlos%Lumbreras%NULL%2,                  José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                  Bruno%Moulin%NULL%1,                  Samira%Fafi-Kremer%NULL%2,                  Ilies%Benotmane%NULL%1,                  Gabriela%Gautier%NULL%1,                  Peggy%Perrin%NULL%1,                  Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                  Beatrice%Borchi%NULL%1,                  Annarita%Botta%NULL%2,                  Annarita%Botta%NULL%0,                  Alfredo%Bagalà%NULL%2,                  Alfredo%Bagalà%NULL%0,                  Gianmarco%Lugli%NULL%1,                  Marta%Tilli%NULL%2,                  Marta%Tilli%NULL%0,                  Annalisa%Cavallo%NULL%1,                  Brunilda%Xhaferi%NULL%1,                  Roberta%Cutruzzulà%NULL%1,                  Augusto%Vaglio%NULL%1,                  Silvia%Bresci%NULL%1,                  Aida%Larti%NULL%1,                  Alessandro%Bartoloni%NULL%1,                  Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                  Lei%Liu%NULL%0,                  Wenyuan%Li%NULL%1,                  Hongtao%Liu%NULL%1,                  Jizhou%Wang%NULL%1,                  Ziqin%Yao%NULL%1,                  Shengyu%Zhang%NULL%1,                  Desheng%Zhao%NULL%1,                  Björn%Nashan%NULL%1,                  Aizong%Shen%NULL%1,                  Lianxin%Liu%NULL%2,                  Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                  Xin%Li%NULL%3,                  Guanghui%Cao%NULL%1,                  Xiaoqiang%Wu%NULL%1,                  Zhiwei%Wang%NULL%1,                  Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                  Yan%Chen%NULL%1,                  Quan%Yuan%NULL%1,                  Qiu-Xiang%Xia%NULL%1,                  Xian-Peng%Zeng%NULL%1,                  Jing-Tao%Peng%NULL%1,                  Jing%Liu%NULL%3,                  Xing-Yuan%Xiao%NULL%1,                  Guo-Song%Jiang%NULL%1,                  Han-Yu%Xiao%NULL%1,                  Liang-Bo%Xie%NULL%1,                  Jing%Chen%NULL%2,                  Jia-Li%Liu%NULL%1,                  Xiong%Xiao%NULL%1,                  Hua%Su%NULL%1,                  Chun%Zhang%NULL%1,                  Xiao-Ping%Zhang%NULL%1,                  Hua%Yang%NULL%1,                  Heng%Li%NULL%1,                  Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                  Qin%Yin%NULL%1,                  Huibo%Shi%NULL%2,                  Dunfeng%Du%NULL%1,                  Sheng%Chang%NULL%1,                  Li%Ni%NULL%1,                  Haifang%Qiu%NULL%1,                  Zhishui%Chen%NULL%2,                  Jixian%Zhang%NULL%1,                  Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                  Marta%Colaneri%NULL%1,                  Margherita%Sambo%NULL%1,                  Ilaria%Gallazzi%NULL%1,                  Angela%Di Matteo%NULL%1,                  Silvia%Roda%NULL%1,                  Raffaele%Bruno%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                  Marco%Delsante%NULL%1,                  Enrico%Fiaccadori%NULL%1,                  Gianluigi%Zaza%NULL%1,                  Lucio%Manenti%NULL%1,                  Anna%Degli Antoni%NULL%1,                  Licia%Peruzzi%NULL%1,                  Leonardo V.%Riella%NULL%1,                  Paolo%Cravedi%NULL%1,                  Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                  Gaston J.%Pineiro%NULL%1,                  Ignacio%Revuelta%NULL%1,                  Diana%Rodriguez%NULL%1,                  Marta%Bodro%NULL%1,                  Asunción%Moreno%NULL%1,                  Josep M.%Campistol%NULL%1,                  Fritz%Diekmann%NULL%1,                  Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                  Amado%Andrés%NULL%0,                  Carmelo%Loinaz%NULL%0,                  Juan F.%Delgado%NULL%0,                  Francisco%López-Medrano%NULL%0,                  Rafael%San Juan%NULL%0,                  Esther%González%NULL%0,                  Natalia%Polanco%NULL%0,                  María D.%Folgueira%NULL%0,                  Antonio%Lalueza%NULL%0,                  Carlos%Lumbreras%NULL%0,                  José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                  Qiuyan%Zhang%NULL%1,                  Haoyang%Xia%NULL%1,                  Aiping%Wang%NULL%1,                  Wenjin%Liang%NULL%1,                  Wei%Zhou%NULL%1,                  Lihua%Zhou%NULL%1,                  Xiao%Liu%NULL%1,                  Lingzhang%Rao%NULL%1,                  Zhifeng%Li%NULL%1,                  Zhiyong%Peng%NULL%1,                  Pingzheng%Mo%NULL%0,                  Yong%Xiong%NULL%0,                  Shaojun%Ye%NULL%1,                  Yanfeng%Wang%NULL%1,                  Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,           Haitao%Wang%xref no email%1,           Xian%Qin%xref no email%1,           Peng%Zhang%xref no email%1,           Lihua%Zhu%xref no email%1,           Jingjing%Cai%xref no email%1,           Yufeng%Yuan%xref no email%1,           Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                  Kenneth I.%Zheng%NULL%1,                  Jacob%George%NULL%1,                  Hai-Nv%Gao%NULL%1,                  Ru-Nan%Wei%NULL%1,                  Hua-Dong%Yan%NULL%1,                  Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                  Yangzhong%Wang%NULL%1,                  Yuanyuan%Zhao%NULL%1,                  Huibo%Shi%NULL%0,                  Fanjun%Zeng%NULL%1,                  Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                  Roberta Elisa%Rossi%NULL%1,                  Davide%Citterio%NULL%1,                  Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1580,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1558,7 +1609,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1587,7 +1638,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1616,7 +1667,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1645,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1674,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1703,7 +1754,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1732,7 +1783,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1761,7 +1812,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1790,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1819,7 +1870,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1848,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1877,7 +1928,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1906,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1935,7 +1986,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1964,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1993,7 +2044,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="406">
   <si>
     <t>Doi</t>
   </si>
@@ -1245,6 +1245,66 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,                  Roberta Elisa%Rossi%NULL%1,                  Davide%Citterio%NULL%1,                  Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,            Simona%De Michele%xref no email%1,            Michael J.%Lee%xref no email%1,            Jean C.%Emond%xref no email%1,            Adam D.%Griesemer%xref no email%1,            Sheryl A.%Tulin-Silver%xref no email%1,            Elizabeth C.%Verna%xref no email%1,            Mercedes%Martinez%xref no email%1,            Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                   Amado%Andrés%NULL%2,                   Carmelo%Loinaz%NULL%2,                   Juan F.%Delgado%NULL%2,                   Francisco%López-Medrano%NULL%2,                   Rafael%San Juan%NULL%2,                   Esther%González%NULL%2,                   Natalia%Polanco%NULL%2,                   María D.%Folgueira%NULL%2,                   Antonio%Lalueza%NULL%2,                   Carlos%Lumbreras%NULL%2,                   José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                   Bruno%Moulin%NULL%1,                   Samira%Fafi-Kremer%NULL%2,                   Ilies%Benotmane%NULL%1,                   Gabriela%Gautier%NULL%1,                   Peggy%Perrin%NULL%1,                   Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                   Beatrice%Borchi%NULL%1,                   Annarita%Botta%NULL%2,                   Annarita%Botta%NULL%0,                   Alfredo%Bagalà%NULL%2,                   Alfredo%Bagalà%NULL%0,                   Gianmarco%Lugli%NULL%1,                   Marta%Tilli%NULL%2,                   Marta%Tilli%NULL%0,                   Annalisa%Cavallo%NULL%1,                   Brunilda%Xhaferi%NULL%1,                   Roberta%Cutruzzulà%NULL%1,                   Augusto%Vaglio%NULL%1,                   Silvia%Bresci%NULL%1,                   Aida%Larti%NULL%1,                   Alessandro%Bartoloni%NULL%1,                   Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                   Lei%Liu%NULL%0,                   Wenyuan%Li%NULL%1,                   Hongtao%Liu%NULL%1,                   Jizhou%Wang%NULL%1,                   Ziqin%Yao%NULL%1,                   Shengyu%Zhang%NULL%1,                   Desheng%Zhao%NULL%1,                   Björn%Nashan%NULL%1,                   Aizong%Shen%NULL%1,                   Lianxin%Liu%NULL%2,                   Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                   Xin%Li%NULL%3,                   Guanghui%Cao%NULL%1,                   Xiaoqiang%Wu%NULL%1,                   Zhiwei%Wang%NULL%1,                   Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                   Yan%Chen%NULL%1,                   Quan%Yuan%NULL%1,                   Qiu-Xiang%Xia%NULL%1,                   Xian-Peng%Zeng%NULL%1,                   Jing-Tao%Peng%NULL%1,                   Jing%Liu%NULL%3,                   Xing-Yuan%Xiao%NULL%1,                   Guo-Song%Jiang%NULL%1,                   Han-Yu%Xiao%NULL%1,                   Liang-Bo%Xie%NULL%1,                   Jing%Chen%NULL%2,                   Jia-Li%Liu%NULL%1,                   Xiong%Xiao%NULL%1,                   Hua%Su%NULL%1,                   Chun%Zhang%NULL%1,                   Xiao-Ping%Zhang%NULL%1,                   Hua%Yang%NULL%1,                   Heng%Li%NULL%1,                   Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                   Qin%Yin%NULL%1,                   Huibo%Shi%NULL%2,                   Dunfeng%Du%NULL%1,                   Sheng%Chang%NULL%1,                   Li%Ni%NULL%1,                   Haifang%Qiu%NULL%1,                   Zhishui%Chen%NULL%2,                   Jixian%Zhang%NULL%1,                   Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                   Marta%Colaneri%NULL%1,                   Margherita%Sambo%NULL%1,                   Ilaria%Gallazzi%NULL%1,                   Angela%Di Matteo%NULL%1,                   Silvia%Roda%NULL%1,                   Raffaele%Bruno%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                   Marco%Delsante%NULL%1,                   Enrico%Fiaccadori%NULL%1,                   Gianluigi%Zaza%NULL%1,                   Lucio%Manenti%NULL%1,                   Anna%Degli Antoni%NULL%1,                   Licia%Peruzzi%NULL%1,                   Leonardo V.%Riella%NULL%1,                   Paolo%Cravedi%NULL%1,                   Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                   Gaston J.%Pineiro%NULL%1,                   Ignacio%Revuelta%NULL%1,                   Diana%Rodriguez%NULL%1,                   Marta%Bodro%NULL%1,                   Asunción%Moreno%NULL%1,                   Josep M.%Campistol%NULL%1,                   Fritz%Diekmann%NULL%1,                   Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                   Amado%Andrés%NULL%0,                   Carmelo%Loinaz%NULL%0,                   Juan F.%Delgado%NULL%0,                   Francisco%López-Medrano%NULL%0,                   Rafael%San Juan%NULL%0,                   Esther%González%NULL%0,                   Natalia%Polanco%NULL%0,                   María D.%Folgueira%NULL%0,                   Antonio%Lalueza%NULL%0,                   Carlos%Lumbreras%NULL%0,                   José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                   Qiuyan%Zhang%NULL%1,                   Haoyang%Xia%NULL%1,                   Aiping%Wang%NULL%1,                   Wenjin%Liang%NULL%1,                   Wei%Zhou%NULL%1,                   Lihua%Zhou%NULL%1,                   Xiao%Liu%NULL%1,                   Lingzhang%Rao%NULL%1,                   Zhifeng%Li%NULL%1,                   Zhiyong%Peng%NULL%1,                   Pingzheng%Mo%NULL%0,                   Yong%Xiong%NULL%0,                   Shaojun%Ye%NULL%1,                   Yanfeng%Wang%NULL%1,                   Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,            Haitao%Wang%xref no email%1,            Xian%Qin%xref no email%1,            Peng%Zhang%xref no email%1,            Lihua%Zhu%xref no email%1,            Jingjing%Cai%xref no email%1,            Yufeng%Yuan%xref no email%1,            Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                   Kenneth I.%Zheng%NULL%1,                   Jacob%George%NULL%1,                   Hai-Nv%Gao%NULL%1,                   Ru-Nan%Wei%NULL%1,                   Hua-Dong%Yan%NULL%1,                   Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                   Yangzhong%Wang%NULL%1,                   Yuanyuan%Zhao%NULL%1,                   Huibo%Shi%NULL%0,                   Fanjun%Zeng%NULL%1,                   Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                   Roberta Elisa%Rossi%NULL%1,                   Davide%Citterio%NULL%1,                   Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1640,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1592,7 +1652,7 @@
         <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
@@ -1609,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1621,7 +1681,7 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
@@ -1638,7 +1698,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1650,7 +1710,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
@@ -1667,7 +1727,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1679,7 +1739,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
@@ -1696,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1708,7 +1768,7 @@
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1785,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1737,7 +1797,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
@@ -1754,7 +1814,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1766,7 +1826,7 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9">
@@ -1783,7 +1843,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1795,7 +1855,7 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
@@ -1812,7 +1872,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1824,7 +1884,7 @@
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
@@ -1841,7 +1901,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1853,7 +1913,7 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +1930,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1882,7 +1942,7 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -1899,7 +1959,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1911,7 +1971,7 @@
         <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14">
@@ -1928,7 +1988,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1940,7 +2000,7 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15">
@@ -1957,7 +2017,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1969,7 +2029,7 @@
         <v>212</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
@@ -1986,7 +2046,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1998,7 +2058,7 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17">
@@ -2015,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2027,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18">
@@ -2044,7 +2104,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2056,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19">
@@ -2085,7 +2145,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="423">
   <si>
     <t>Doi</t>
   </si>
@@ -1305,6 +1305,57 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,                   Roberta Elisa%Rossi%NULL%1,                   Davide%Citterio%NULL%1,                   Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%1,             Simona%De Michele%xref no email%1,             Michael J.%Lee%xref no email%1,             Jean C.%Emond%xref no email%1,             Adam D.%Griesemer%xref no email%1,             Sheryl A.%Tulin-Silver%xref no email%1,             Elizabeth C.%Verna%xref no email%1,             Mercedes%Martinez%xref no email%1,             Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                    Amado%Andrés%NULL%2,                    Carmelo%Loinaz%NULL%2,                    Juan F.%Delgado%NULL%2,                    Francisco%López-Medrano%NULL%2,                    Rafael%San Juan%NULL%2,                    Esther%González%NULL%2,                    Natalia%Polanco%NULL%2,                    María D.%Folgueira%NULL%2,                    Antonio%Lalueza%NULL%2,                    Carlos%Lumbreras%NULL%2,                    José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                    Bruno%Moulin%NULL%1,                    Samira%Fafi-Kremer%NULL%2,                    Ilies%Benotmane%NULL%1,                    Gabriela%Gautier%NULL%1,                    Peggy%Perrin%NULL%1,                    Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                    Beatrice%Borchi%NULL%1,                    Annarita%Botta%NULL%2,                    Annarita%Botta%NULL%0,                    Alfredo%Bagalà%NULL%2,                    Alfredo%Bagalà%NULL%0,                    Gianmarco%Lugli%NULL%1,                    Marta%Tilli%NULL%2,                    Marta%Tilli%NULL%0,                    Annalisa%Cavallo%NULL%1,                    Brunilda%Xhaferi%NULL%1,                    Roberta%Cutruzzulà%NULL%1,                    Augusto%Vaglio%NULL%1,                    Silvia%Bresci%NULL%1,                    Aida%Larti%NULL%1,                    Alessandro%Bartoloni%NULL%1,                    Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                    Lei%Liu%NULL%0,                    Wenyuan%Li%NULL%1,                    Hongtao%Liu%NULL%1,                    Jizhou%Wang%NULL%1,                    Ziqin%Yao%NULL%1,                    Shengyu%Zhang%NULL%1,                    Desheng%Zhao%NULL%1,                    Björn%Nashan%NULL%1,                    Aizong%Shen%NULL%1,                    Lianxin%Liu%NULL%2,                    Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                    Xin%Li%NULL%3,                    Guanghui%Cao%NULL%1,                    Xiaoqiang%Wu%NULL%1,                    Zhiwei%Wang%NULL%1,                    Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                    Yan%Chen%NULL%1,                    Quan%Yuan%NULL%1,                    Qiu-Xiang%Xia%NULL%1,                    Xian-Peng%Zeng%NULL%1,                    Jing-Tao%Peng%NULL%1,                    Jing%Liu%NULL%3,                    Xing-Yuan%Xiao%NULL%1,                    Guo-Song%Jiang%NULL%1,                    Han-Yu%Xiao%NULL%1,                    Liang-Bo%Xie%NULL%1,                    Jing%Chen%NULL%2,                    Jia-Li%Liu%NULL%1,                    Xiong%Xiao%NULL%1,                    Hua%Su%NULL%1,                    Chun%Zhang%NULL%1,                    Xiao-Ping%Zhang%NULL%1,                    Hua%Yang%NULL%1,                    Heng%Li%NULL%1,                    Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                    Qin%Yin%NULL%1,                    Huibo%Shi%NULL%2,                    Dunfeng%Du%NULL%1,                    Sheng%Chang%NULL%1,                    Li%Ni%NULL%1,                    Haifang%Qiu%NULL%1,                    Zhishui%Chen%NULL%2,                    Jixian%Zhang%NULL%1,                    Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                    Marta%Colaneri%NULL%1,                    Margherita%Sambo%NULL%1,                    Ilaria%Gallazzi%NULL%1,                    Angela%Di Matteo%NULL%1,                    Silvia%Roda%NULL%1,                    Raffaele%Bruno%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                    Marco%Delsante%NULL%1,                    Enrico%Fiaccadori%NULL%1,                    Gianluigi%Zaza%NULL%1,                    Lucio%Manenti%NULL%1,                    Anna%Degli Antoni%NULL%1,                    Licia%Peruzzi%NULL%1,                    Leonardo V.%Riella%NULL%1,                    Paolo%Cravedi%NULL%1,                    Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                    Gaston J.%Pineiro%NULL%1,                    Ignacio%Revuelta%NULL%1,                    Diana%Rodriguez%NULL%1,                    Marta%Bodro%NULL%1,                    Asunción%Moreno%NULL%1,                    Josep M.%Campistol%NULL%1,                    Fritz%Diekmann%NULL%1,                    Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                    Amado%Andrés%NULL%0,                    Carmelo%Loinaz%NULL%0,                    Juan F.%Delgado%NULL%0,                    Francisco%López-Medrano%NULL%0,                    Rafael%San Juan%NULL%0,                    Esther%González%NULL%0,                    Natalia%Polanco%NULL%0,                    María D.%Folgueira%NULL%0,                    Antonio%Lalueza%NULL%0,                    Carlos%Lumbreras%NULL%0,                    José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                    Qiuyan%Zhang%NULL%1,                    Haoyang%Xia%NULL%1,                    Aiping%Wang%NULL%1,                    Wenjin%Liang%NULL%1,                    Wei%Zhou%NULL%1,                    Lihua%Zhou%NULL%1,                    Xiao%Liu%NULL%1,                    Lingzhang%Rao%NULL%1,                    Zhifeng%Li%NULL%1,                    Zhiyong%Peng%NULL%1,                    Pingzheng%Mo%NULL%0,                    Yong%Xiong%NULL%0,                    Shaojun%Ye%NULL%1,                    Yanfeng%Wang%NULL%1,                    Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%1,             Haitao%Wang%xref no email%1,             Xian%Qin%xref no email%1,             Peng%Zhang%xref no email%1,             Lihua%Zhu%xref no email%1,             Jingjing%Cai%xref no email%1,             Yufeng%Yuan%xref no email%1,             Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                    Kenneth I.%Zheng%NULL%1,                    Jacob%George%NULL%1,                    Hai-Nv%Gao%NULL%1,                    Ru-Nan%Wei%NULL%1,                    Hua-Dong%Yan%NULL%1,                    Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                    Yangzhong%Wang%NULL%1,                    Yuanyuan%Zhao%NULL%1,                    Huibo%Shi%NULL%0,                    Fanjun%Zeng%NULL%1,                    Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                    Roberta Elisa%Rossi%NULL%1,                    Davide%Citterio%NULL%1,                    Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1691,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1669,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1698,7 +1749,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1727,7 +1778,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1756,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1785,7 +1836,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1814,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1843,7 +1894,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1872,7 +1923,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1901,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1930,7 +1981,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1959,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1988,7 +2039,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2017,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -2046,7 +2097,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2075,7 +2126,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2104,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="503">
   <si>
     <t>Doi</t>
   </si>
@@ -1356,6 +1356,246 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,                    Roberta Elisa%Rossi%NULL%1,                    Davide%Citterio%NULL%1,                    Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Stephen M.%Lagana%xref no email%0, Simona%De Michele%xref no email%1, Michael J.%Lee%xref no email%1, Jean C.%Emond%xref no email%1, Adam D.%Griesemer%xref no email%1, Sheryl A.%Tulin-Silver%xref no email%1, Elizabeth C.%Verna%xref no email%1, Mercedes%Martinez%xref no email%1, Jay H.%Lefkowitch%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Archives of Pathology and Laboratory Medicine</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                     Amado%Andrés%NULL%2,                     Carmelo%Loinaz%NULL%2,                     Juan F.%Delgado%NULL%2,                     Francisco%López-Medrano%NULL%2,                     Rafael%San Juan%NULL%2,                     Esther%González%NULL%2,                     Natalia%Polanco%NULL%2,                     María D.%Folgueira%NULL%2,                     Antonio%Lalueza%NULL%2,                     Carlos%Lumbreras%NULL%2,                     José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                     Bruno%Moulin%NULL%1,                     Samira%Fafi-Kremer%NULL%2,                     Ilies%Benotmane%NULL%1,                     Gabriela%Gautier%NULL%1,                     Peggy%Perrin%NULL%1,                     Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                     Beatrice%Borchi%NULL%1,                     Annarita%Botta%NULL%2,                     Annarita%Botta%NULL%0,                     Alfredo%Bagalà%NULL%2,                     Alfredo%Bagalà%NULL%0,                     Gianmarco%Lugli%NULL%1,                     Marta%Tilli%NULL%2,                     Marta%Tilli%NULL%0,                     Annalisa%Cavallo%NULL%1,                     Brunilda%Xhaferi%NULL%1,                     Roberta%Cutruzzulà%NULL%1,                     Augusto%Vaglio%NULL%1,                     Silvia%Bresci%NULL%1,                     Aida%Larti%NULL%1,                     Alessandro%Bartoloni%NULL%1,                     Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                     Lei%Liu%NULL%0,                     Wenyuan%Li%NULL%1,                     Hongtao%Liu%NULL%1,                     Jizhou%Wang%NULL%1,                     Ziqin%Yao%NULL%1,                     Shengyu%Zhang%NULL%1,                     Desheng%Zhao%NULL%1,                     Björn%Nashan%NULL%1,                     Aizong%Shen%NULL%1,                     Lianxin%Liu%NULL%2,                     Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                     Xin%Li%NULL%3,                     Guanghui%Cao%NULL%1,                     Xiaoqiang%Wu%NULL%1,                     Zhiwei%Wang%NULL%1,                     Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                     Yan%Chen%NULL%1,                     Quan%Yuan%NULL%1,                     Qiu-Xiang%Xia%NULL%1,                     Xian-Peng%Zeng%NULL%1,                     Jing-Tao%Peng%NULL%1,                     Jing%Liu%NULL%3,                     Xing-Yuan%Xiao%NULL%1,                     Guo-Song%Jiang%NULL%1,                     Han-Yu%Xiao%NULL%1,                     Liang-Bo%Xie%NULL%1,                     Jing%Chen%NULL%2,                     Jia-Li%Liu%NULL%1,                     Xiong%Xiao%NULL%1,                     Hua%Su%NULL%1,                     Chun%Zhang%NULL%1,                     Xiao-Ping%Zhang%NULL%1,                     Hua%Yang%NULL%1,                     Heng%Li%NULL%1,                     Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                     Qin%Yin%NULL%1,                     Huibo%Shi%NULL%2,                     Dunfeng%Du%NULL%1,                     Sheng%Chang%NULL%1,                     Li%Ni%NULL%1,                     Haifang%Qiu%NULL%1,                     Zhishui%Chen%NULL%2,                     Jixian%Zhang%NULL%1,                     Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                     Marta%Colaneri%NULL%1,                     Margherita%Sambo%NULL%1,                     Ilaria%Gallazzi%NULL%1,                     Angela%Di Matteo%NULL%1,                     Silvia%Roda%NULL%1,                     Raffaele%Bruno%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                     Marco%Delsante%NULL%1,                     Enrico%Fiaccadori%NULL%1,                     Gianluigi%Zaza%NULL%1,                     Lucio%Manenti%NULL%1,                     Anna%Degli Antoni%NULL%1,                     Licia%Peruzzi%NULL%1,                     Leonardo V.%Riella%NULL%1,                     Paolo%Cravedi%NULL%1,                     Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                     Gaston J.%Pineiro%NULL%1,                     Ignacio%Revuelta%NULL%1,                     Diana%Rodriguez%NULL%1,                     Marta%Bodro%NULL%1,                     Asunción%Moreno%NULL%1,                     Josep M.%Campistol%NULL%1,                     Fritz%Diekmann%NULL%1,                     Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                     Amado%Andrés%NULL%0,                     Carmelo%Loinaz%NULL%0,                     Juan F.%Delgado%NULL%0,                     Francisco%López-Medrano%NULL%0,                     Rafael%San Juan%NULL%0,                     Esther%González%NULL%0,                     Natalia%Polanco%NULL%0,                     María D.%Folgueira%NULL%0,                     Antonio%Lalueza%NULL%0,                     Carlos%Lumbreras%NULL%0,                     José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                     Qiuyan%Zhang%NULL%1,                     Haoyang%Xia%NULL%1,                     Aiping%Wang%NULL%1,                     Wenjin%Liang%NULL%1,                     Wei%Zhou%NULL%1,                     Lihua%Zhou%NULL%1,                     Xiao%Liu%NULL%1,                     Lingzhang%Rao%NULL%1,                     Zhifeng%Li%NULL%1,                     Zhiyong%Peng%NULL%1,                     Pingzheng%Mo%NULL%0,                     Yong%Xiong%NULL%0,                     Shaojun%Ye%NULL%1,                     Yanfeng%Wang%NULL%1,                     Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juanjuan%Qin%xref no email%0, Haitao%Wang%xref no email%1, Xian%Qin%xref no email%1, Peng%Zhang%xref no email%0, Lihua%Zhu%xref no email%1, Jingjing%Cai%xref no email%1, Yufeng%Yuan%xref no email%1, Hongliang%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                     Kenneth I.%Zheng%NULL%1,                     Jacob%George%NULL%1,                     Hai-Nv%Gao%NULL%1,                     Ru-Nan%Wei%NULL%1,                     Hua-Dong%Yan%NULL%1,                     Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                     Yangzhong%Wang%NULL%1,                     Yuanyuan%Zhao%NULL%1,                     Huibo%Shi%NULL%0,                     Fanjun%Zeng%NULL%1,                     Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                     Roberta Elisa%Rossi%NULL%1,                     Davide%Citterio%NULL%1,                     Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                      Amado%Andrés%NULL%2,                      Carmelo%Loinaz%NULL%2,                      Juan F.%Delgado%NULL%2,                      Francisco%López-Medrano%NULL%2,                      Rafael%San Juan%NULL%2,                      Esther%González%NULL%2,                      Natalia%Polanco%NULL%2,                      María D.%Folgueira%NULL%2,                      Antonio%Lalueza%NULL%2,                      Carlos%Lumbreras%NULL%2,                      José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                      Bruno%Moulin%NULL%1,                      Samira%Fafi-Kremer%NULL%2,                      Ilies%Benotmane%NULL%1,                      Gabriela%Gautier%NULL%1,                      Peggy%Perrin%NULL%1,                      Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                      Beatrice%Borchi%NULL%1,                      Annarita%Botta%NULL%2,                      Annarita%Botta%NULL%0,                      Alfredo%Bagalà%NULL%2,                      Alfredo%Bagalà%NULL%0,                      Gianmarco%Lugli%NULL%1,                      Marta%Tilli%NULL%2,                      Marta%Tilli%NULL%0,                      Annalisa%Cavallo%NULL%1,                      Brunilda%Xhaferi%NULL%1,                      Roberta%Cutruzzulà%NULL%1,                      Augusto%Vaglio%NULL%1,                      Silvia%Bresci%NULL%1,                      Aida%Larti%NULL%1,                      Alessandro%Bartoloni%NULL%1,                      Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                      Lei%Liu%NULL%0,                      Wenyuan%Li%NULL%1,                      Hongtao%Liu%NULL%1,                      Jizhou%Wang%NULL%1,                      Ziqin%Yao%NULL%1,                      Shengyu%Zhang%NULL%1,                      Desheng%Zhao%NULL%1,                      Björn%Nashan%NULL%1,                      Aizong%Shen%NULL%1,                      Lianxin%Liu%NULL%2,                      Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                      Xin%Li%NULL%3,                      Guanghui%Cao%NULL%1,                      Xiaoqiang%Wu%NULL%1,                      Zhiwei%Wang%NULL%1,                      Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                      Yan%Chen%NULL%1,                      Quan%Yuan%NULL%1,                      Qiu-Xiang%Xia%NULL%1,                      Xian-Peng%Zeng%NULL%1,                      Jing-Tao%Peng%NULL%1,                      Jing%Liu%NULL%3,                      Xing-Yuan%Xiao%NULL%1,                      Guo-Song%Jiang%NULL%1,                      Han-Yu%Xiao%NULL%1,                      Liang-Bo%Xie%NULL%1,                      Jing%Chen%NULL%2,                      Jia-Li%Liu%NULL%1,                      Xiong%Xiao%NULL%1,                      Hua%Su%NULL%1,                      Chun%Zhang%NULL%1,                      Xiao-Ping%Zhang%NULL%1,                      Hua%Yang%NULL%1,                      Heng%Li%NULL%1,                      Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                      Qin%Yin%NULL%1,                      Huibo%Shi%NULL%2,                      Dunfeng%Du%NULL%1,                      Sheng%Chang%NULL%1,                      Li%Ni%NULL%1,                      Haifang%Qiu%NULL%1,                      Zhishui%Chen%NULL%2,                      Jixian%Zhang%NULL%1,                      Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                      Marta%Colaneri%NULL%1,                      Margherita%Sambo%NULL%1,                      Ilaria%Gallazzi%NULL%1,                      Angela%Di Matteo%NULL%1,                      Silvia%Roda%NULL%1,                      Raffaele%Bruno%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                      Marco%Delsante%NULL%1,                      Enrico%Fiaccadori%NULL%1,                      Gianluigi%Zaza%NULL%1,                      Lucio%Manenti%NULL%1,                      Anna%Degli Antoni%NULL%1,                      Licia%Peruzzi%NULL%1,                      Leonardo V.%Riella%NULL%1,                      Paolo%Cravedi%NULL%1,                      Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                      Gaston J.%Pineiro%NULL%1,                      Ignacio%Revuelta%NULL%1,                      Diana%Rodriguez%NULL%1,                      Marta%Bodro%NULL%1,                      Asunción%Moreno%NULL%1,                      Josep M.%Campistol%NULL%1,                      Fritz%Diekmann%NULL%1,                      Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                      Amado%Andrés%NULL%0,                      Carmelo%Loinaz%NULL%0,                      Juan F.%Delgado%NULL%0,                      Francisco%López-Medrano%NULL%0,                      Rafael%San Juan%NULL%0,                      Esther%González%NULL%0,                      Natalia%Polanco%NULL%0,                      María D.%Folgueira%NULL%0,                      Antonio%Lalueza%NULL%0,                      Carlos%Lumbreras%NULL%0,                      José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                      Qiuyan%Zhang%NULL%1,                      Haoyang%Xia%NULL%1,                      Aiping%Wang%NULL%1,                      Wenjin%Liang%NULL%1,                      Wei%Zhou%NULL%1,                      Lihua%Zhou%NULL%1,                      Xiao%Liu%NULL%1,                      Lingzhang%Rao%NULL%1,                      Zhifeng%Li%NULL%1,                      Zhiyong%Peng%NULL%1,                      Pingzheng%Mo%NULL%0,                      Yong%Xiong%NULL%0,                      Shaojun%Ye%NULL%1,                      Yanfeng%Wang%NULL%1,                      Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                      Kenneth I.%Zheng%NULL%1,                      Jacob%George%NULL%1,                      Hai-Nv%Gao%NULL%1,                      Ru-Nan%Wei%NULL%1,                      Hua-Dong%Yan%NULL%1,                      Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                      Yangzhong%Wang%NULL%1,                      Yuanyuan%Zhao%NULL%1,                      Huibo%Shi%NULL%0,                      Fanjun%Zeng%NULL%1,                      Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                      Roberta Elisa%Rossi%NULL%1,                      Davide%Citterio%NULL%1,                      Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                       Amado%Andrés%NULL%2,                       Carmelo%Loinaz%NULL%2,                       Juan F.%Delgado%NULL%2,                       Francisco%López-Medrano%NULL%2,                       Rafael%San Juan%NULL%2,                       Esther%González%NULL%2,                       Natalia%Polanco%NULL%2,                       María D.%Folgueira%NULL%2,                       Antonio%Lalueza%NULL%2,                       Carlos%Lumbreras%NULL%2,                       José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                       Bruno%Moulin%NULL%1,                       Samira%Fafi-Kremer%NULL%2,                       Ilies%Benotmane%NULL%1,                       Gabriela%Gautier%NULL%1,                       Peggy%Perrin%NULL%1,                       Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                       Beatrice%Borchi%NULL%1,                       Annarita%Botta%NULL%2,                       Annarita%Botta%NULL%0,                       Alfredo%Bagalà%NULL%2,                       Alfredo%Bagalà%NULL%0,                       Gianmarco%Lugli%NULL%1,                       Marta%Tilli%NULL%2,                       Marta%Tilli%NULL%0,                       Annalisa%Cavallo%NULL%1,                       Brunilda%Xhaferi%NULL%1,                       Roberta%Cutruzzulà%NULL%1,                       Augusto%Vaglio%NULL%1,                       Silvia%Bresci%NULL%1,                       Aida%Larti%NULL%1,                       Alessandro%Bartoloni%NULL%1,                       Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                       Lei%Liu%NULL%0,                       Wenyuan%Li%NULL%1,                       Hongtao%Liu%NULL%1,                       Jizhou%Wang%NULL%1,                       Ziqin%Yao%NULL%1,                       Shengyu%Zhang%NULL%1,                       Desheng%Zhao%NULL%1,                       Björn%Nashan%NULL%1,                       Aizong%Shen%NULL%1,                       Lianxin%Liu%NULL%2,                       Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                       Xin%Li%NULL%3,                       Guanghui%Cao%NULL%1,                       Xiaoqiang%Wu%NULL%1,                       Zhiwei%Wang%NULL%1,                       Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                       Yan%Chen%NULL%1,                       Quan%Yuan%NULL%1,                       Qiu-Xiang%Xia%NULL%1,                       Xian-Peng%Zeng%NULL%1,                       Jing-Tao%Peng%NULL%1,                       Jing%Liu%NULL%3,                       Xing-Yuan%Xiao%NULL%1,                       Guo-Song%Jiang%NULL%1,                       Han-Yu%Xiao%NULL%1,                       Liang-Bo%Xie%NULL%1,                       Jing%Chen%NULL%2,                       Jia-Li%Liu%NULL%1,                       Xiong%Xiao%NULL%1,                       Hua%Su%NULL%1,                       Chun%Zhang%NULL%1,                       Xiao-Ping%Zhang%NULL%1,                       Hua%Yang%NULL%1,                       Heng%Li%NULL%1,                       Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                       Qin%Yin%NULL%1,                       Huibo%Shi%NULL%2,                       Dunfeng%Du%NULL%1,                       Sheng%Chang%NULL%1,                       Li%Ni%NULL%1,                       Haifang%Qiu%NULL%1,                       Zhishui%Chen%NULL%2,                       Jixian%Zhang%NULL%1,                       Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                       Marta%Colaneri%NULL%1,                       Margherita%Sambo%NULL%1,                       Ilaria%Gallazzi%NULL%1,                       Angela%Di Matteo%NULL%1,                       Silvia%Roda%NULL%1,                       Raffaele%Bruno%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                       Marco%Delsante%NULL%1,                       Enrico%Fiaccadori%NULL%1,                       Gianluigi%Zaza%NULL%1,                       Lucio%Manenti%NULL%1,                       Anna%Degli Antoni%NULL%1,                       Licia%Peruzzi%NULL%1,                       Leonardo V.%Riella%NULL%1,                       Paolo%Cravedi%NULL%1,                       Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                       Gaston J.%Pineiro%NULL%1,                       Ignacio%Revuelta%NULL%1,                       Diana%Rodriguez%NULL%1,                       Marta%Bodro%NULL%1,                       Asunción%Moreno%NULL%1,                       Josep M.%Campistol%NULL%1,                       Fritz%Diekmann%NULL%1,                       Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                       Amado%Andrés%NULL%0,                       Carmelo%Loinaz%NULL%0,                       Juan F.%Delgado%NULL%0,                       Francisco%López-Medrano%NULL%0,                       Rafael%San Juan%NULL%0,                       Esther%González%NULL%0,                       Natalia%Polanco%NULL%0,                       María D.%Folgueira%NULL%0,                       Antonio%Lalueza%NULL%0,                       Carlos%Lumbreras%NULL%0,                       José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                       Qiuyan%Zhang%NULL%1,                       Haoyang%Xia%NULL%1,                       Aiping%Wang%NULL%1,                       Wenjin%Liang%NULL%1,                       Wei%Zhou%NULL%1,                       Lihua%Zhou%NULL%1,                       Xiao%Liu%NULL%1,                       Lingzhang%Rao%NULL%1,                       Zhifeng%Li%NULL%1,                       Zhiyong%Peng%NULL%1,                       Pingzheng%Mo%NULL%0,                       Yong%Xiong%NULL%0,                       Shaojun%Ye%NULL%1,                       Yanfeng%Wang%NULL%1,                       Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                       Kenneth I.%Zheng%NULL%1,                       Jacob%George%NULL%1,                       Hai-Nv%Gao%NULL%1,                       Ru-Nan%Wei%NULL%1,                       Hua-Dong%Yan%NULL%1,                       Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                       Yangzhong%Wang%NULL%1,                       Yuanyuan%Zhao%NULL%1,                       Huibo%Shi%NULL%0,                       Fanjun%Zeng%NULL%1,                       Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                       Roberta Elisa%Rossi%NULL%1,                       Davide%Citterio%NULL%1,                       Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                        Amado%Andrés%NULL%2,                        Carmelo%Loinaz%NULL%2,                        Juan F.%Delgado%NULL%2,                        Francisco%López-Medrano%NULL%2,                        Rafael%San Juan%NULL%2,                        Esther%González%NULL%2,                        Natalia%Polanco%NULL%2,                        María D.%Folgueira%NULL%2,                        Antonio%Lalueza%NULL%2,                        Carlos%Lumbreras%NULL%2,                        José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                        Bruno%Moulin%NULL%1,                        Samira%Fafi-Kremer%NULL%2,                        Ilies%Benotmane%NULL%1,                        Gabriela%Gautier%NULL%1,                        Peggy%Perrin%NULL%1,                        Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                        Beatrice%Borchi%NULL%1,                        Annarita%Botta%NULL%2,                        Annarita%Botta%NULL%0,                        Alfredo%Bagalà%NULL%2,                        Alfredo%Bagalà%NULL%0,                        Gianmarco%Lugli%NULL%1,                        Marta%Tilli%NULL%2,                        Marta%Tilli%NULL%0,                        Annalisa%Cavallo%NULL%1,                        Brunilda%Xhaferi%NULL%1,                        Roberta%Cutruzzulà%NULL%1,                        Augusto%Vaglio%NULL%1,                        Silvia%Bresci%NULL%1,                        Aida%Larti%NULL%1,                        Alessandro%Bartoloni%NULL%1,                        Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                        Lei%Liu%NULL%0,                        Wenyuan%Li%NULL%1,                        Hongtao%Liu%NULL%1,                        Jizhou%Wang%NULL%1,                        Ziqin%Yao%NULL%1,                        Shengyu%Zhang%NULL%1,                        Desheng%Zhao%NULL%1,                        Björn%Nashan%NULL%1,                        Aizong%Shen%NULL%1,                        Lianxin%Liu%NULL%2,                        Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                        Xin%Li%NULL%3,                        Guanghui%Cao%NULL%1,                        Xiaoqiang%Wu%NULL%1,                        Zhiwei%Wang%NULL%1,                        Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                        Yan%Chen%NULL%1,                        Quan%Yuan%NULL%1,                        Qiu-Xiang%Xia%NULL%1,                        Xian-Peng%Zeng%NULL%1,                        Jing-Tao%Peng%NULL%1,                        Jing%Liu%NULL%3,                        Xing-Yuan%Xiao%NULL%1,                        Guo-Song%Jiang%NULL%1,                        Han-Yu%Xiao%NULL%1,                        Liang-Bo%Xie%NULL%1,                        Jing%Chen%NULL%2,                        Jia-Li%Liu%NULL%1,                        Xiong%Xiao%NULL%1,                        Hua%Su%NULL%1,                        Chun%Zhang%NULL%1,                        Xiao-Ping%Zhang%NULL%1,                        Hua%Yang%NULL%1,                        Heng%Li%NULL%1,                        Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                        Qin%Yin%NULL%1,                        Huibo%Shi%NULL%2,                        Dunfeng%Du%NULL%1,                        Sheng%Chang%NULL%1,                        Li%Ni%NULL%1,                        Haifang%Qiu%NULL%1,                        Zhishui%Chen%NULL%2,                        Jixian%Zhang%NULL%1,                        Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                        Marta%Colaneri%NULL%1,                        Margherita%Sambo%NULL%1,                        Ilaria%Gallazzi%NULL%1,                        Angela%Di Matteo%NULL%1,                        Silvia%Roda%NULL%1,                        Raffaele%Bruno%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                        Marco%Delsante%NULL%1,                        Enrico%Fiaccadori%NULL%1,                        Gianluigi%Zaza%NULL%1,                        Lucio%Manenti%NULL%1,                        Anna%Degli Antoni%NULL%1,                        Licia%Peruzzi%NULL%1,                        Leonardo V.%Riella%NULL%1,                        Paolo%Cravedi%NULL%1,                        Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                        Gaston J.%Pineiro%NULL%1,                        Ignacio%Revuelta%NULL%1,                        Diana%Rodriguez%NULL%1,                        Marta%Bodro%NULL%1,                        Asunción%Moreno%NULL%1,                        Josep M.%Campistol%NULL%1,                        Fritz%Diekmann%NULL%1,                        Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                        Amado%Andrés%NULL%0,                        Carmelo%Loinaz%NULL%0,                        Juan F.%Delgado%NULL%0,                        Francisco%López-Medrano%NULL%0,                        Rafael%San Juan%NULL%0,                        Esther%González%NULL%0,                        Natalia%Polanco%NULL%0,                        María D.%Folgueira%NULL%0,                        Antonio%Lalueza%NULL%0,                        Carlos%Lumbreras%NULL%0,                        José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                        Qiuyan%Zhang%NULL%1,                        Haoyang%Xia%NULL%1,                        Aiping%Wang%NULL%1,                        Wenjin%Liang%NULL%1,                        Wei%Zhou%NULL%1,                        Lihua%Zhou%NULL%1,                        Xiao%Liu%NULL%1,                        Lingzhang%Rao%NULL%1,                        Zhifeng%Li%NULL%1,                        Zhiyong%Peng%NULL%1,                        Pingzheng%Mo%NULL%0,                        Yong%Xiong%NULL%0,                        Shaojun%Ye%NULL%1,                        Yanfeng%Wang%NULL%1,                        Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                        Kenneth I.%Zheng%NULL%1,                        Jacob%George%NULL%1,                        Hai-Nv%Gao%NULL%1,                        Ru-Nan%Wei%NULL%1,                        Hua-Dong%Yan%NULL%1,                        Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                        Yangzhong%Wang%NULL%1,                        Yuanyuan%Zhao%NULL%1,                        Huibo%Shi%NULL%0,                        Fanjun%Zeng%NULL%1,                        Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                        Roberta Elisa%Rossi%NULL%1,                        Davide%Citterio%NULL%1,                        Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                         Amado%Andrés%NULL%2,                         Carmelo%Loinaz%NULL%2,                         Juan F.%Delgado%NULL%2,                         Francisco%López-Medrano%NULL%2,                         Rafael%San Juan%NULL%2,                         Esther%González%NULL%2,                         Natalia%Polanco%NULL%2,                         María D.%Folgueira%NULL%2,                         Antonio%Lalueza%NULL%2,                         Carlos%Lumbreras%NULL%2,                         José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                         Bruno%Moulin%NULL%1,                         Samira%Fafi-Kremer%NULL%2,                         Ilies%Benotmane%NULL%1,                         Gabriela%Gautier%NULL%1,                         Peggy%Perrin%NULL%1,                         Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                         Beatrice%Borchi%NULL%1,                         Annarita%Botta%NULL%2,                         Annarita%Botta%NULL%0,                         Alfredo%Bagalà%NULL%2,                         Alfredo%Bagalà%NULL%0,                         Gianmarco%Lugli%NULL%1,                         Marta%Tilli%NULL%2,                         Marta%Tilli%NULL%0,                         Annalisa%Cavallo%NULL%1,                         Brunilda%Xhaferi%NULL%1,                         Roberta%Cutruzzulà%NULL%1,                         Augusto%Vaglio%NULL%1,                         Silvia%Bresci%NULL%1,                         Aida%Larti%NULL%1,                         Alessandro%Bartoloni%NULL%1,                         Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                         Lei%Liu%NULL%0,                         Wenyuan%Li%NULL%1,                         Hongtao%Liu%NULL%1,                         Jizhou%Wang%NULL%1,                         Ziqin%Yao%NULL%1,                         Shengyu%Zhang%NULL%1,                         Desheng%Zhao%NULL%1,                         Björn%Nashan%NULL%1,                         Aizong%Shen%NULL%1,                         Lianxin%Liu%NULL%2,                         Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                         Xin%Li%NULL%3,                         Guanghui%Cao%NULL%1,                         Xiaoqiang%Wu%NULL%1,                         Zhiwei%Wang%NULL%1,                         Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                         Yan%Chen%NULL%1,                         Quan%Yuan%NULL%1,                         Qiu-Xiang%Xia%NULL%1,                         Xian-Peng%Zeng%NULL%1,                         Jing-Tao%Peng%NULL%1,                         Jing%Liu%NULL%3,                         Xing-Yuan%Xiao%NULL%1,                         Guo-Song%Jiang%NULL%1,                         Han-Yu%Xiao%NULL%1,                         Liang-Bo%Xie%NULL%1,                         Jing%Chen%NULL%2,                         Jia-Li%Liu%NULL%1,                         Xiong%Xiao%NULL%1,                         Hua%Su%NULL%1,                         Chun%Zhang%NULL%1,                         Xiao-Ping%Zhang%NULL%1,                         Hua%Yang%NULL%1,                         Heng%Li%NULL%1,                         Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                         Qin%Yin%NULL%1,                         Huibo%Shi%NULL%2,                         Dunfeng%Du%NULL%1,                         Sheng%Chang%NULL%1,                         Li%Ni%NULL%1,                         Haifang%Qiu%NULL%1,                         Zhishui%Chen%NULL%2,                         Jixian%Zhang%NULL%1,                         Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                         Marta%Colaneri%NULL%1,                         Margherita%Sambo%NULL%1,                         Ilaria%Gallazzi%NULL%1,                         Angela%Di Matteo%NULL%1,                         Silvia%Roda%NULL%1,                         Raffaele%Bruno%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                         Marco%Delsante%NULL%1,                         Enrico%Fiaccadori%NULL%1,                         Gianluigi%Zaza%NULL%1,                         Lucio%Manenti%NULL%1,                         Anna%Degli Antoni%NULL%1,                         Licia%Peruzzi%NULL%1,                         Leonardo V.%Riella%NULL%1,                         Paolo%Cravedi%NULL%1,                         Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                         Gaston J.%Pineiro%NULL%1,                         Ignacio%Revuelta%NULL%1,                         Diana%Rodriguez%NULL%1,                         Marta%Bodro%NULL%1,                         Asunción%Moreno%NULL%1,                         Josep M.%Campistol%NULL%1,                         Fritz%Diekmann%NULL%1,                         Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                         Amado%Andrés%NULL%0,                         Carmelo%Loinaz%NULL%0,                         Juan F.%Delgado%NULL%0,                         Francisco%López-Medrano%NULL%0,                         Rafael%San Juan%NULL%0,                         Esther%González%NULL%0,                         Natalia%Polanco%NULL%0,                         María D.%Folgueira%NULL%0,                         Antonio%Lalueza%NULL%0,                         Carlos%Lumbreras%NULL%0,                         José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                         Qiuyan%Zhang%NULL%1,                         Haoyang%Xia%NULL%1,                         Aiping%Wang%NULL%1,                         Wenjin%Liang%NULL%1,                         Wei%Zhou%NULL%1,                         Lihua%Zhou%NULL%1,                         Xiao%Liu%NULL%1,                         Lingzhang%Rao%NULL%1,                         Zhifeng%Li%NULL%1,                         Zhiyong%Peng%NULL%1,                         Pingzheng%Mo%NULL%0,                         Yong%Xiong%NULL%0,                         Shaojun%Ye%NULL%1,                         Yanfeng%Wang%NULL%1,                         Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                         Kenneth I.%Zheng%NULL%1,                         Jacob%George%NULL%1,                         Hai-Nv%Gao%NULL%1,                         Ru-Nan%Wei%NULL%1,                         Hua-Dong%Yan%NULL%1,                         Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                         Yangzhong%Wang%NULL%1,                         Yuanyuan%Zhao%NULL%1,                         Huibo%Shi%NULL%0,                         Fanjun%Zeng%NULL%1,                         Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                         Roberta Elisa%Rossi%NULL%1,                         Davide%Citterio%NULL%1,                         Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1676,6 +1916,9 @@
       <c r="I1" t="s">
         <v>115</v>
       </c>
+      <c r="J1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1691,7 +1934,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1703,7 +1946,10 @@
         <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="3">
@@ -1720,7 +1966,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1733,6 +1979,9 @@
       </c>
       <c r="I3" t="s">
         <v>389</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1749,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1762,6 +2011,9 @@
       </c>
       <c r="I4" t="s">
         <v>389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1778,7 +2030,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1791,6 +2043,9 @@
       </c>
       <c r="I5" t="s">
         <v>392</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1807,7 +2062,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1820,6 +2075,9 @@
       </c>
       <c r="I6" t="s">
         <v>389</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1836,7 +2094,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1849,6 +2107,9 @@
       </c>
       <c r="I7" t="s">
         <v>389</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +2126,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1878,6 +2139,9 @@
       </c>
       <c r="I8" t="s">
         <v>389</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1894,7 +2158,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1907,6 +2171,9 @@
       </c>
       <c r="I9" t="s">
         <v>389</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1923,7 +2190,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1936,6 +2203,9 @@
       </c>
       <c r="I10" t="s">
         <v>389</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1952,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1965,6 +2235,9 @@
       </c>
       <c r="I11" t="s">
         <v>389</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1981,7 +2254,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1994,6 +2267,9 @@
       </c>
       <c r="I12" t="s">
         <v>389</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2286,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -2023,6 +2299,9 @@
       </c>
       <c r="I13" t="s">
         <v>389</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2039,7 +2318,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2052,6 +2331,9 @@
       </c>
       <c r="I14" t="s">
         <v>389</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2068,7 +2350,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -2080,7 +2362,10 @@
         <v>212</v>
       </c>
       <c r="I15" t="s">
-        <v>387</v>
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="16">
@@ -2097,7 +2382,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2110,6 +2395,9 @@
       </c>
       <c r="I16" t="s">
         <v>389</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2126,7 +2414,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2139,6 +2427,9 @@
       </c>
       <c r="I17" t="s">
         <v>389</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2155,7 +2446,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2168,6 +2459,9 @@
       </c>
       <c r="I18" t="s">
         <v>389</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2197,6 +2491,9 @@
       </c>
       <c r="I19" t="s">
         <v>387</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/51.xlsx
+++ b/Covid_19_Dataset_and_References/References/51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="533">
   <si>
     <t>Doi</t>
   </si>
@@ -1596,6 +1596,96 @@
   </si>
   <si>
     <t>[Sherrie%Bhoori%NULL%1,                         Roberta Elisa%Rossi%NULL%1,                         Davide%Citterio%NULL%1,                         Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                          Amado%Andrés%NULL%2,                          Carmelo%Loinaz%NULL%2,                          Juan F.%Delgado%NULL%2,                          Francisco%López-Medrano%NULL%2,                          Rafael%San Juan%NULL%2,                          Esther%González%NULL%2,                          Natalia%Polanco%NULL%2,                          María D.%Folgueira%NULL%2,                          Antonio%Lalueza%NULL%2,                          Carlos%Lumbreras%NULL%2,                          José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                          Bruno%Moulin%NULL%1,                          Samira%Fafi-Kremer%NULL%2,                          Ilies%Benotmane%NULL%1,                          Gabriela%Gautier%NULL%1,                          Peggy%Perrin%NULL%1,                          Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                          Beatrice%Borchi%NULL%1,                          Annarita%Botta%NULL%2,                          Annarita%Botta%NULL%0,                          Alfredo%Bagalà%NULL%2,                          Alfredo%Bagalà%NULL%0,                          Gianmarco%Lugli%NULL%1,                          Marta%Tilli%NULL%2,                          Marta%Tilli%NULL%0,                          Annalisa%Cavallo%NULL%1,                          Brunilda%Xhaferi%NULL%1,                          Roberta%Cutruzzulà%NULL%1,                          Augusto%Vaglio%NULL%1,                          Silvia%Bresci%NULL%1,                          Aida%Larti%NULL%1,                          Alessandro%Bartoloni%NULL%1,                          Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                          Lei%Liu%NULL%0,                          Wenyuan%Li%NULL%1,                          Hongtao%Liu%NULL%1,                          Jizhou%Wang%NULL%1,                          Ziqin%Yao%NULL%1,                          Shengyu%Zhang%NULL%1,                          Desheng%Zhao%NULL%1,                          Björn%Nashan%NULL%1,                          Aizong%Shen%NULL%1,                          Lianxin%Liu%NULL%2,                          Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                          Xin%Li%NULL%3,                          Guanghui%Cao%NULL%1,                          Xiaoqiang%Wu%NULL%1,                          Zhiwei%Wang%NULL%1,                          Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                          Yan%Chen%NULL%1,                          Quan%Yuan%NULL%1,                          Qiu-Xiang%Xia%NULL%1,                          Xian-Peng%Zeng%NULL%1,                          Jing-Tao%Peng%NULL%1,                          Jing%Liu%NULL%3,                          Xing-Yuan%Xiao%NULL%1,                          Guo-Song%Jiang%NULL%1,                          Han-Yu%Xiao%NULL%1,                          Liang-Bo%Xie%NULL%1,                          Jing%Chen%NULL%2,                          Jia-Li%Liu%NULL%1,                          Xiong%Xiao%NULL%1,                          Hua%Su%NULL%1,                          Chun%Zhang%NULL%1,                          Xiao-Ping%Zhang%NULL%1,                          Hua%Yang%NULL%1,                          Heng%Li%NULL%1,                          Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                          Qin%Yin%NULL%1,                          Huibo%Shi%NULL%2,                          Dunfeng%Du%NULL%1,                          Sheng%Chang%NULL%1,                          Li%Ni%NULL%1,                          Haifang%Qiu%NULL%1,                          Zhishui%Chen%NULL%2,                          Jixian%Zhang%NULL%1,                          Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                          Marta%Colaneri%NULL%1,                          Margherita%Sambo%NULL%1,                          Ilaria%Gallazzi%NULL%1,                          Angela%Di Matteo%NULL%1,                          Silvia%Roda%NULL%1,                          Raffaele%Bruno%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                          Marco%Delsante%NULL%1,                          Enrico%Fiaccadori%NULL%1,                          Gianluigi%Zaza%NULL%1,                          Lucio%Manenti%NULL%1,                          Anna%Degli Antoni%NULL%1,                          Licia%Peruzzi%NULL%1,                          Leonardo V.%Riella%NULL%1,                          Paolo%Cravedi%NULL%1,                          Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                          Gaston J.%Pineiro%NULL%1,                          Ignacio%Revuelta%NULL%1,                          Diana%Rodriguez%NULL%1,                          Marta%Bodro%NULL%1,                          Asunción%Moreno%NULL%1,                          Josep M.%Campistol%NULL%1,                          Fritz%Diekmann%NULL%1,                          Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                          Amado%Andrés%NULL%0,                          Carmelo%Loinaz%NULL%0,                          Juan F.%Delgado%NULL%0,                          Francisco%López-Medrano%NULL%0,                          Rafael%San Juan%NULL%0,                          Esther%González%NULL%0,                          Natalia%Polanco%NULL%0,                          María D.%Folgueira%NULL%0,                          Antonio%Lalueza%NULL%0,                          Carlos%Lumbreras%NULL%0,                          José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                          Qiuyan%Zhang%NULL%1,                          Haoyang%Xia%NULL%1,                          Aiping%Wang%NULL%1,                          Wenjin%Liang%NULL%1,                          Wei%Zhou%NULL%1,                          Lihua%Zhou%NULL%1,                          Xiao%Liu%NULL%1,                          Lingzhang%Rao%NULL%1,                          Zhifeng%Li%NULL%1,                          Zhiyong%Peng%NULL%1,                          Pingzheng%Mo%NULL%0,                          Yong%Xiong%NULL%0,                          Shaojun%Ye%NULL%1,                          Yanfeng%Wang%NULL%1,                          Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                          Kenneth I.%Zheng%NULL%1,                          Jacob%George%NULL%1,                          Hai-Nv%Gao%NULL%1,                          Ru-Nan%Wei%NULL%1,                          Hua-Dong%Yan%NULL%1,                          Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                          Yangzhong%Wang%NULL%1,                          Yuanyuan%Zhao%NULL%1,                          Huibo%Shi%NULL%0,                          Fanjun%Zeng%NULL%1,                          Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                          Roberta Elisa%Rossi%NULL%1,                          Davide%Citterio%NULL%1,                          Vincenzo%Mazzaferro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%2,                           Amado%Andrés%NULL%2,                           Carmelo%Loinaz%NULL%2,                           Juan F.%Delgado%NULL%2,                           Francisco%López-Medrano%NULL%2,                           Rafael%San Juan%NULL%2,                           Esther%González%NULL%2,                           Natalia%Polanco%NULL%2,                           María D.%Folgueira%NULL%2,                           Antonio%Lalueza%NULL%2,                           Carlos%Lumbreras%NULL%2,                           José M.%Aguado%NULL%2]</t>
+  </si>
+  <si>
+    <t>[David%Marx%NULL%1,                           Bruno%Moulin%NULL%1,                           Samira%Fafi-Kremer%NULL%2,                           Ilies%Benotmane%NULL%1,                           Gabriela%Gautier%NULL%1,                           Peggy%Perrin%NULL%1,                           Sophie%Caillard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marilù%Bartiromo%bartiromom@aou-careggi.toscana.it%1,                           Beatrice%Borchi%NULL%1,                           Annarita%Botta%NULL%2,                           Annarita%Botta%NULL%0,                           Alfredo%Bagalà%NULL%2,                           Alfredo%Bagalà%NULL%0,                           Gianmarco%Lugli%NULL%1,                           Marta%Tilli%NULL%2,                           Marta%Tilli%NULL%0,                           Annalisa%Cavallo%NULL%1,                           Brunilda%Xhaferi%NULL%1,                           Roberta%Cutruzzulà%NULL%1,                           Augusto%Vaglio%NULL%1,                           Silvia%Bresci%NULL%1,                           Aida%Larti%NULL%1,                           Alessandro%Bartoloni%NULL%1,                           Calogero%Cirami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Ning%NULL%1,                           Lei%Liu%NULL%0,                           Wenyuan%Li%NULL%1,                           Hongtao%Liu%NULL%1,                           Jizhou%Wang%NULL%1,                           Ziqin%Yao%NULL%1,                           Shengyu%Zhang%NULL%1,                           Desheng%Zhao%NULL%1,                           Björn%Nashan%NULL%1,                           Aizong%Shen%NULL%1,                           Lianxin%Liu%NULL%2,                           Lei%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Junpeng%Wang%NULL%1,                           Xin%Li%NULL%3,                           Guanghui%Cao%NULL%1,                           Xiaoqiang%Wu%NULL%1,                           Zhiwei%Wang%NULL%1,                           Tianzhong%Yan%ytz460@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Zhang%NULL%1,                           Yan%Chen%NULL%1,                           Quan%Yuan%NULL%1,                           Qiu-Xiang%Xia%NULL%1,                           Xian-Peng%Zeng%NULL%1,                           Jing-Tao%Peng%NULL%1,                           Jing%Liu%NULL%3,                           Xing-Yuan%Xiao%NULL%1,                           Guo-Song%Jiang%NULL%1,                           Han-Yu%Xiao%NULL%1,                           Liang-Bo%Xie%NULL%1,                           Jing%Chen%NULL%2,                           Jia-Li%Liu%NULL%1,                           Xiong%Xiao%NULL%1,                           Hua%Su%NULL%1,                           Chun%Zhang%NULL%1,                           Xiao-Ping%Zhang%NULL%1,                           Hua%Yang%NULL%1,                           Heng%Li%NULL%1,                           Zhen-Di%Wang%wangzhendi@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Song%Chen%NULL%1,                           Qin%Yin%NULL%1,                           Huibo%Shi%NULL%2,                           Dunfeng%Du%NULL%1,                           Sheng%Chang%NULL%1,                           Li%Ni%NULL%1,                           Haifang%Qiu%NULL%1,                           Zhishui%Chen%NULL%2,                           Jixian%Zhang%NULL%1,                           Weijie%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Seminari%NULL%1,                           Marta%Colaneri%NULL%1,                           Margherita%Sambo%NULL%1,                           Ilaria%Gallazzi%NULL%1,                           Angela%Di Matteo%NULL%1,                           Silvia%Roda%NULL%1,                           Raffaele%Bruno%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ilaria%Gandolfini%NULL%1,                           Marco%Delsante%NULL%1,                           Enrico%Fiaccadori%NULL%1,                           Gianluigi%Zaza%NULL%1,                           Lucio%Manenti%NULL%1,                           Anna%Degli Antoni%NULL%1,                           Licia%Peruzzi%NULL%1,                           Leonardo V.%Riella%NULL%1,                           Paolo%Cravedi%NULL%1,                           Umberto%Maggiore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elena%Guillen%NULL%1,                           Gaston J.%Pineiro%NULL%1,                           Ignacio%Revuelta%NULL%1,                           Diana%Rodriguez%NULL%1,                           Marta%Bodro%NULL%1,                           Asunción%Moreno%NULL%1,                           Josep M.%Campistol%NULL%1,                           Fritz%Diekmann%NULL%1,                           Pedro%Ventura-Aguiar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mario%Fernández-Ruiz%NULL%0,                           Amado%Andrés%NULL%0,                           Carmelo%Loinaz%NULL%0,                           Juan F.%Delgado%NULL%0,                           Francisco%López-Medrano%NULL%0,                           Rafael%San Juan%NULL%0,                           Esther%González%NULL%0,                           Natalia%Polanco%NULL%0,                           María D.%Folgueira%NULL%0,                           Antonio%Lalueza%NULL%0,                           Carlos%Lumbreras%NULL%0,                           José M.%Aguado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zibiao%Zhong%NULL%1,                           Qiuyan%Zhang%NULL%1,                           Haoyang%Xia%NULL%1,                           Aiping%Wang%NULL%1,                           Wenjin%Liang%NULL%1,                           Wei%Zhou%NULL%1,                           Lihua%Zhou%NULL%1,                           Xiao%Liu%NULL%1,                           Lingzhang%Rao%NULL%1,                           Zhifeng%Li%NULL%1,                           Zhiyong%Peng%NULL%1,                           Pingzheng%Mo%NULL%0,                           Yong%Xiong%NULL%0,                           Shaojun%Ye%NULL%1,                           Yanfeng%Wang%NULL%1,                           Qifa%Ye%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiao-Feng%Huang%NULL%1,                           Kenneth I.%Zheng%NULL%1,                           Jacob%George%NULL%1,                           Hai-Nv%Gao%NULL%1,                           Ru-Nan%Wei%NULL%1,                           Hua-Dong%Yan%NULL%1,                           Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bin%Liu%NULL%1,                           Yangzhong%Wang%NULL%1,                           Yuanyuan%Zhao%NULL%1,                           Huibo%Shi%NULL%0,                           Fanjun%Zeng%NULL%1,                           Zhishui%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sherrie%Bhoori%NULL%1,                           Roberta Elisa%Rossi%NULL%1,                           Davide%Citterio%NULL%1,                           Vincenzo%Mazzaferro%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +2024,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1966,7 +2056,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1998,7 +2088,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -2030,7 +2120,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2062,7 +2152,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -2094,7 +2184,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -2126,7 +2216,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -2158,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2190,7 +2280,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2222,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2254,7 +2344,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -2286,7 +2376,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -2318,7 +2408,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2350,7 +2440,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -2382,7 +2472,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2414,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2446,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
